--- a/data/conf/crops.xlsx
+++ b/data/conf/crops.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C8EA75BF-BC23-4CA4-8E45-909AF081B0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B2935B-3FDD-4890-AEDC-55CF5F5FF853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
-    <sheet name="crops_fao" sheetId="2" r:id="rId2"/>
+    <sheet name="fao" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="807">
   <si>
     <t>name</t>
   </si>
@@ -2442,15 +2442,12 @@
   </si>
   <si>
     <t>fao</t>
-  </si>
-  <si>
-    <t>crop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3284,7 +3281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6150,11 +6147,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6165,7 +6162,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>807</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>806</v>

--- a/data/conf/crops.xlsx
+++ b/data/conf/crops.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67730F1-402E-4D86-8D60-93F75805E2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DE4397-421D-4C74-B1EB-4B82FEEB4A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="4" r:id="rId1"/>
     <sheet name="fao" sheetId="2" r:id="rId2"/>
     <sheet name="fao_groups" sheetId="6" r:id="rId3"/>
+    <sheet name="regions" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crops!$A$1:$E$356</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5824" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7848" uniqueCount="1046">
   <si>
     <t>useable</t>
   </si>
@@ -3097,6 +3098,84 @@
   </si>
   <si>
     <t>crop</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>SAM-Tro</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>WAF</t>
+  </si>
+  <si>
+    <t>EAS</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>SAM-A</t>
+  </si>
+  <si>
+    <t>SAM-Tem</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>EEU-N</t>
+  </si>
+  <si>
+    <t>EEU-S</t>
+  </si>
+  <si>
+    <t>WEU-S</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>WEU-N</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>EAF</t>
+  </si>
+  <si>
+    <t>IOI</t>
+  </si>
+  <si>
+    <t>SAF</t>
+  </si>
+  <si>
+    <t>PAC-ANZ</t>
+  </si>
+  <si>
+    <t>PAC-T</t>
+  </si>
+  <si>
+    <t>New Zealand Spinach</t>
+  </si>
+  <si>
+    <t>Rapeseed and Mustards</t>
+  </si>
+  <si>
+    <t>region</t>
   </si>
 </sst>
 </file>
@@ -4002,7 +4081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B53530E-7DF3-4E69-9ECA-E0E59D9B7AD8}">
   <dimension ref="A1:E356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -24884,4 +24963,8119 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7ED19D-4D8E-4C89-AC35-7FB778E26637}">
+  <dimension ref="A1:B1012"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>38</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>38</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>41</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>41</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>42</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>42</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>42</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>42</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>44</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>44</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>44</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>45</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>45</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>46</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>46</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>46</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>46</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>46</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>46</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>46</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>46</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>47</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>48</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>49</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>49</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>50</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>51</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>51</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>51</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>52</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>53</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>53</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>54</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>55</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>55</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>56</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>56</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>56</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>57</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>57</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>57</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>58</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>58</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>58</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>58</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>59</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>59</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>59</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>59</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>59</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>61</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>62</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>62</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>62</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>62</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>63</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>63</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>63</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>64</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>65</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>65</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>65</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>65</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>66</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>66</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>66</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>67</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>67</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>68</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>69</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>69</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>69</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>69</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>70</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>70</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>71</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>72</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>73</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>73</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>73</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>74</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>74</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>74</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>74</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>74</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>75</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>76</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>76</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>77</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>77</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>77</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>77</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>78</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>79</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>79</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>79</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>80</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>80</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>81</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>81</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>81</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>81</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>82</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>83</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>84</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>84</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>84</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>85</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>85</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>85</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>85</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>86</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>86</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>86</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>86</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>87</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>87</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>87</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>88</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>89</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>89</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>89</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>89</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>89</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>89</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>89</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>89</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>90</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>90</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>90</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>91</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>91</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>91</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>92</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>92</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>93</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>93</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>93</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>94</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>94</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>94</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>95</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>96</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>96</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>97</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>97</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>97</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>97</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>97</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>97</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>97</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>97</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>98</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>99</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>99</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>100</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>100</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>100</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>101</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>101</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>101</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>102</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>102</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>103</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>103</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>103</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>104</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>104</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>104</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>104</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>104</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>104</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>105</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>105</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>105</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>105</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>105</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>106</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>106</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>106</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>106</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>107</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>108</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>109</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>109</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>109</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>110</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>110</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>110</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>111</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>111</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>112</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>112</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>112</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>112</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>112</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>113</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>114</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>114</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>115</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>115</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>115</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>115</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>115</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>115</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>115</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>115</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>116</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>116</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>116</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>117</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>117</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>117</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>117</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>118</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>118</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>119</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>119</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>119</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>119</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>119</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>119</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>120</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>121</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>121</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>121</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>122</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>122</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>122</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>122</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>122</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>123</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>123</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>124</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>125</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>126</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>127</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>127</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>127</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>127</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>128</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>129</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>129</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>129</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>129</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>129</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>129</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>129</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>129</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>130</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>130</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>130</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>131</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>131</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>131</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>131</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>131</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>132</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>132</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>133</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>133</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>133</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>134</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>134</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>134</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>134</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>134</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>134</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>134</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>135</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>136</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>136</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>137</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>137</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>137</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>137</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>137</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>138</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>139</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>139</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>140</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>141</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>141</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>141</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>141</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>141</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>141</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>141</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>142</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>142</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>143</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>143</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>143</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>143</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>144</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>145</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>146</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>146</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>147</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>147</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>148</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>149</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>149</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>149</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>149</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>149</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>149</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>150</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>150</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>150</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>151</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>151</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>151</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>152</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>152</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>152</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>152</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>152</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>152</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>152</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>152</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>153</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>153</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>154</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>155</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>155</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>155</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>155</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>155</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>155</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>155</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>155</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>155</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>155</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>155</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>155</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>155</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>155</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>155</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>156</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>157</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>158</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>158</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>159</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>160</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>161</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>162</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>162</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>163</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>164</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>165</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>166</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>166</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>166</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>166</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>167</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>167</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>167</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>168</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>169</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>170</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>171</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>171</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>171</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>172</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>172</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>173</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>173</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>173</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>174</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>174</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>174</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>174</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>175</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>175</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>175</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>176</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>176</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>176</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>176</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>176</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>177</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>177</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>178</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>178</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>178</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>179</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>179</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>179</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>179</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>180</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>180</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>180</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>180</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>180</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>180</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>180</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>181</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>182</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>182</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>182</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>182</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>182</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>183</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>183</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>184</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>185</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>185</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>185</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>186</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>186</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>186</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>186</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>186</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>186</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>186</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>186</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>187</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>188</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>189</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>189</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>189</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>189</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>189</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>189</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>189</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>189</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>189</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>190</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>191</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>191</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>191</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>191</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>192</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>193</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>194</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>194</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>194</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>194</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>195</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>196</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>196</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>197</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>197</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>198</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>198</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>199</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>200</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>201</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>201</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>202</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>203</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>204</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>204</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>205</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>206</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>207</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>207</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>208</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>209</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>209</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>210</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>210</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>210</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>210</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>210</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>210</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>210</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>210</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>211</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>211</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>211</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>211</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>211</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>211</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>211</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>211</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>212</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>212</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>212</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>213</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>214</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>214</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>214</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>215</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>215</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>215</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>215</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>216</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>217</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>217</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>217</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>217</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>217</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>217</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>218</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>219</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>220</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>220</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>221</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>221</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>222</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>223</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>224</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>224</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>225</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>225</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>226</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>226</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>226</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>226</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>226</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>227</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>227</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>228</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>228</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>229</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>229</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>229</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>229</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>229</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>230</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>231</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>231</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>231</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>231</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>232</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>232</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>233</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>233</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>234</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>234</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>234</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>235</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>235</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>235</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>235</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>236</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>236</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>237</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>238</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>239</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>239</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>240</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>240</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>240</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>240</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>241</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>241</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>241</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>241</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>241</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>242</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>243</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>244</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>245</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>245</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>245</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>245</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>245</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>245</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>245</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>245</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>245</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>246</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>246</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>247</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>248</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>248</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>248</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>248</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>248</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>248</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>248</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>248</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>248</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>249</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>249</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>249</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>249</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>249</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>249</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>249</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>249</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>249</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>250</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>251</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>252</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>252</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>253</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>253</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>254</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>255</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>255</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>256</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>256</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>257</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>257</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>257</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>257</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>258</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>258</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>258</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>258</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>258</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>258</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>258</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>258</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>258</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>258</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>258</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>259</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>259</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>260</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>260</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>260</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>261</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>261</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>261</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>262</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>263</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>264</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>264</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>264</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>265</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>265</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>265</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>265</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>266</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>266</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>266</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>267</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>268</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>268</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>268</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>269</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>270</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>270</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>271</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>271</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>272</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>272</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>272</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>273</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>274</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>275</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>275</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>275</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>275</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>275</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>275</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>275</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>275</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>275</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>276</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>277</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>277</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>277</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>277</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>277</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>277</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>277</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>277</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>277</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>277</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>277</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>277</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>277</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>277</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>277</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>277</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>278</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>279</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>279</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>279</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>280</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>280</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>281</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>282</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>282</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>282</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>282</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>283</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>284</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>285</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>286</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>286</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>286</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>287</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>287</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>288</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>289</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>289</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>290</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>290</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>290</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>290</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>291</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>291</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>292</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>292</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>292</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>293</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>293</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>293</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>293</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>294</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>294</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>294</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>295</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>295</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>295</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>295</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>295</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>295</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>295</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>295</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>295</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>296</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>297</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>298</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>298</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>298</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>299</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>299</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>299</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>300</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>301</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>301</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>301</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>301</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>302</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>302</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>302</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>302</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>302</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>303</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>303</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>304</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>305</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>305</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>305</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>305</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>305</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>305</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>305</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>306</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>306</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>307</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>307</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>308</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>308</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>308</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>309</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>309</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>309</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>309</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>310</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>310</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>311</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>311</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>311</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>311</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>311</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>312</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>312</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>313</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>314</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>315</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>315</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>316</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>317</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>317</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>317</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>318</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>318</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>318</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>318</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>319</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>319</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>319</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>320</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>320</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>320</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>320</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>320</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>320</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>320</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>321</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>321</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>321</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>322</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>323</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>324</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>324</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>325</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>325</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>326</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>327</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>327</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>328</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>329</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>329</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>330</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>330</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>330</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>331</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>331</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>332</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>332</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>333</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>333</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>333</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>333</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>333</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>334</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>335</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>335</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>335</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>336</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>336</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>336</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>336</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>336</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>336</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>336</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>337</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>338</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>338</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>338</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>338</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>339</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>339</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>339</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>339</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>340</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>341</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>341</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>341</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>341</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>341</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>341</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>342</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>342</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>343</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>343</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>344</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>344</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>344</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>345</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>345</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>345</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>346</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>347</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>347</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/conf/crops.xlsx
+++ b/data/conf/crops.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DE4397-421D-4C74-B1EB-4B82FEEB4A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B205259-2ACF-4263-984F-26CF8D68653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="4" r:id="rId1"/>
     <sheet name="fao" sheetId="2" r:id="rId2"/>
     <sheet name="fao_groups" sheetId="6" r:id="rId3"/>
     <sheet name="regions" sheetId="7" r:id="rId4"/>
+    <sheet name="crops_genus" sheetId="9" r:id="rId5"/>
+    <sheet name="taxa" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crops!$A$1:$E$356</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7848" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9662" uniqueCount="1826">
   <si>
     <t>useable</t>
   </si>
@@ -3176,6 +3178,2346 @@
   </si>
   <si>
     <t>region</t>
+  </si>
+  <si>
+    <t>Abelmoschus esculentus</t>
+  </si>
+  <si>
+    <t>Abelmoschus manihot</t>
+  </si>
+  <si>
+    <t>Abroma augustum</t>
+  </si>
+  <si>
+    <t>Abutilon theophrasti</t>
+  </si>
+  <si>
+    <t>Acca sellowiana</t>
+  </si>
+  <si>
+    <t>Acer saccharum</t>
+  </si>
+  <si>
+    <t>Actinidea deliciosa</t>
+  </si>
+  <si>
+    <t>Actinidia arguta</t>
+  </si>
+  <si>
+    <t>Actinidia chinensis</t>
+  </si>
+  <si>
+    <t>Aeschynomene americana</t>
+  </si>
+  <si>
+    <t>Agave americana</t>
+  </si>
+  <si>
+    <t>Agave cantala</t>
+  </si>
+  <si>
+    <t>Agave foetida</t>
+  </si>
+  <si>
+    <t>Agave fourcroydes</t>
+  </si>
+  <si>
+    <t>Agave lecheguilla</t>
+  </si>
+  <si>
+    <t>Agave letonae</t>
+  </si>
+  <si>
+    <t>Agave sisalana</t>
+  </si>
+  <si>
+    <t>Agropyron cristatum</t>
+  </si>
+  <si>
+    <t>Agropyron desertorum</t>
+  </si>
+  <si>
+    <t>Agrostis capillaris</t>
+  </si>
+  <si>
+    <t>Agrostis stolonifera</t>
+  </si>
+  <si>
+    <t>Agrostis tenuis</t>
+  </si>
+  <si>
+    <t>Aleurites fordii</t>
+  </si>
+  <si>
+    <t>Aleurites moluccanus</t>
+  </si>
+  <si>
+    <t>Allium cepa</t>
+  </si>
+  <si>
+    <t>Allium porrum</t>
+  </si>
+  <si>
+    <t>Allium sativum</t>
+  </si>
+  <si>
+    <t>Allium schoenoprasum</t>
+  </si>
+  <si>
+    <t>Alopecurus pratensis</t>
+  </si>
+  <si>
+    <t>Alysicarpus rugosus</t>
+  </si>
+  <si>
+    <t>Alysicarpus vaginalis</t>
+  </si>
+  <si>
+    <t>Amaranthus blitum</t>
+  </si>
+  <si>
+    <t>Amaranthus caudatus</t>
+  </si>
+  <si>
+    <t>Amaranthus cruentus</t>
+  </si>
+  <si>
+    <t>Amaranthus dubius</t>
+  </si>
+  <si>
+    <t>Amaranthus hypochondriacus</t>
+  </si>
+  <si>
+    <t>Amaranthus tricolor</t>
+  </si>
+  <si>
+    <t>Amomum subulatum</t>
+  </si>
+  <si>
+    <t>Anacardium occidentale</t>
+  </si>
+  <si>
+    <t>Ananas comosus</t>
+  </si>
+  <si>
+    <t>Andropogon gayanus</t>
+  </si>
+  <si>
+    <t>Anethum graveolens</t>
+  </si>
+  <si>
+    <t>Annona cherimola</t>
+  </si>
+  <si>
+    <t>Annona muricata</t>
+  </si>
+  <si>
+    <t>Annona reticulata</t>
+  </si>
+  <si>
+    <t>Annona squamosa</t>
+  </si>
+  <si>
+    <t>Annona xcherimola</t>
+  </si>
+  <si>
+    <t>Anthriscus cerefolium</t>
+  </si>
+  <si>
+    <t>Apium graveolens</t>
+  </si>
+  <si>
+    <t>Arachis hypogaea</t>
+  </si>
+  <si>
+    <t>Arbutus unedo</t>
+  </si>
+  <si>
+    <t>Areca catechu</t>
+  </si>
+  <si>
+    <t>Armoracia rusticana</t>
+  </si>
+  <si>
+    <t>Arracacia xanthorrhiza</t>
+  </si>
+  <si>
+    <t>Arrhenatherum elatius</t>
+  </si>
+  <si>
+    <t>Artemisia dracunculus</t>
+  </si>
+  <si>
+    <t>Artocarpus altilis</t>
+  </si>
+  <si>
+    <t>Artocarpus heterophyllus</t>
+  </si>
+  <si>
+    <t>Asimina triloba</t>
+  </si>
+  <si>
+    <t>Asparagus officinalis</t>
+  </si>
+  <si>
+    <t>Astragalus arenarius</t>
+  </si>
+  <si>
+    <t>Astragalus chinensis</t>
+  </si>
+  <si>
+    <t>Astragalus cicer</t>
+  </si>
+  <si>
+    <t>Astrocaryum standleyanum</t>
+  </si>
+  <si>
+    <t>Atriplex halimus</t>
+  </si>
+  <si>
+    <t>Atriplex hortensis</t>
+  </si>
+  <si>
+    <t>Atriplex nummularia</t>
+  </si>
+  <si>
+    <t>Atriplex patula</t>
+  </si>
+  <si>
+    <t>Avena sativa</t>
+  </si>
+  <si>
+    <t>Averrhoa carambola</t>
+  </si>
+  <si>
+    <t>Bambusa vulgaris</t>
+  </si>
+  <si>
+    <t>Basella alba</t>
+  </si>
+  <si>
+    <t>Basella rubra</t>
+  </si>
+  <si>
+    <t>Benincasa hispida</t>
+  </si>
+  <si>
+    <t>Benincasa pruriens</t>
+  </si>
+  <si>
+    <t>Bertholletia excelsa</t>
+  </si>
+  <si>
+    <t>Beta vulgaris</t>
+  </si>
+  <si>
+    <t>Bixa orellana</t>
+  </si>
+  <si>
+    <t>Blighia sapida</t>
+  </si>
+  <si>
+    <t>Boehmeria nivea</t>
+  </si>
+  <si>
+    <t>Brachiaria brizantha</t>
+  </si>
+  <si>
+    <t>Brachiaria dictyoneura</t>
+  </si>
+  <si>
+    <t>Brachiaria humidicola</t>
+  </si>
+  <si>
+    <t>Brachiaria ruziziensis</t>
+  </si>
+  <si>
+    <t>Brassica alba</t>
+  </si>
+  <si>
+    <t>Brassica carinata</t>
+  </si>
+  <si>
+    <t>Brassica juncea</t>
+  </si>
+  <si>
+    <t>Brassica napus</t>
+  </si>
+  <si>
+    <t>Brassica nigra</t>
+  </si>
+  <si>
+    <t>Brassica oleracea</t>
+  </si>
+  <si>
+    <t>Brassica rapa</t>
+  </si>
+  <si>
+    <t>Cajanus cajan</t>
+  </si>
+  <si>
+    <t>Calopogonium caeruleum</t>
+  </si>
+  <si>
+    <t>Calopogonium mucunoides</t>
+  </si>
+  <si>
+    <t>Camellia sinensis</t>
+  </si>
+  <si>
+    <t>Canarium harveyi</t>
+  </si>
+  <si>
+    <t>Canarium indicum</t>
+  </si>
+  <si>
+    <t>Canarium ovatum</t>
+  </si>
+  <si>
+    <t>Canavalia ensiformis</t>
+  </si>
+  <si>
+    <t>Canavalia gladiata</t>
+  </si>
+  <si>
+    <t>Canna edulis</t>
+  </si>
+  <si>
+    <t>Canna indica</t>
+  </si>
+  <si>
+    <t>Cannabis sativa</t>
+  </si>
+  <si>
+    <t>Capparis spinosa</t>
+  </si>
+  <si>
+    <t>Capsicum annuum</t>
+  </si>
+  <si>
+    <t>Capsicum baccatum</t>
+  </si>
+  <si>
+    <t>Capsicum chinense</t>
+  </si>
+  <si>
+    <t>Capsicum frutescens</t>
+  </si>
+  <si>
+    <t>Capsicum pubescens</t>
+  </si>
+  <si>
+    <t>Carapa guianensis</t>
+  </si>
+  <si>
+    <t>Carica papaya</t>
+  </si>
+  <si>
+    <t>Carica pentagona</t>
+  </si>
+  <si>
+    <t>Carthamus tinctorius</t>
+  </si>
+  <si>
+    <t>Carum carvi</t>
+  </si>
+  <si>
+    <t>Carya illinoinensis</t>
+  </si>
+  <si>
+    <t>Caryocar nuciferum</t>
+  </si>
+  <si>
+    <t>Castanea sativa</t>
+  </si>
+  <si>
+    <t>Ceiba pentandra</t>
+  </si>
+  <si>
+    <t>Cenchrus americanus</t>
+  </si>
+  <si>
+    <t>Centrosema pubescens</t>
+  </si>
+  <si>
+    <t>Ceratonia siliqua</t>
+  </si>
+  <si>
+    <t>Chenopodium pallidicaule</t>
+  </si>
+  <si>
+    <t>Chenopodium quinoa</t>
+  </si>
+  <si>
+    <t>Chrysanthemum cinerariifolium</t>
+  </si>
+  <si>
+    <t>Chrysophyllum cainito</t>
+  </si>
+  <si>
+    <t>Cicer arietinum</t>
+  </si>
+  <si>
+    <t>Cichorium endivia</t>
+  </si>
+  <si>
+    <t>Cichorium intybus</t>
+  </si>
+  <si>
+    <t>Cinnamomum cassia</t>
+  </si>
+  <si>
+    <t>Cinnamomum verum</t>
+  </si>
+  <si>
+    <t>Citrullus lanatus</t>
+  </si>
+  <si>
+    <t>Citrullus vulgaris</t>
+  </si>
+  <si>
+    <t>Citrus aurantiifolia</t>
+  </si>
+  <si>
+    <t>Citrus limon</t>
+  </si>
+  <si>
+    <t>Citrus medica</t>
+  </si>
+  <si>
+    <t>Citrus myrtifolia</t>
+  </si>
+  <si>
+    <t>Citrus paradisi</t>
+  </si>
+  <si>
+    <t>Citrus reticulata</t>
+  </si>
+  <si>
+    <t>Citrus sinensis</t>
+  </si>
+  <si>
+    <t>Citrus xlimon</t>
+  </si>
+  <si>
+    <t>Citrus xparadisi</t>
+  </si>
+  <si>
+    <t>Citrus xsinensis</t>
+  </si>
+  <si>
+    <t>Cleome gynandra</t>
+  </si>
+  <si>
+    <t>Cocos nucifera</t>
+  </si>
+  <si>
+    <t>Coffea arabica</t>
+  </si>
+  <si>
+    <t>Coffea canephora</t>
+  </si>
+  <si>
+    <t>Coix lacryma-jobi</t>
+  </si>
+  <si>
+    <t>Cola acuminata</t>
+  </si>
+  <si>
+    <t>Cola anomala</t>
+  </si>
+  <si>
+    <t>Cola nitida</t>
+  </si>
+  <si>
+    <t>Cola verticillata</t>
+  </si>
+  <si>
+    <t>Colocasia esculenta</t>
+  </si>
+  <si>
+    <t>Corchorus capsularis</t>
+  </si>
+  <si>
+    <t>Corchorus olitorius</t>
+  </si>
+  <si>
+    <t>Coriandrum sativum</t>
+  </si>
+  <si>
+    <t>Coronilla varia</t>
+  </si>
+  <si>
+    <t>Corylus avellana</t>
+  </si>
+  <si>
+    <t>Corylus colurna</t>
+  </si>
+  <si>
+    <t>Crambe abyssinica</t>
+  </si>
+  <si>
+    <t>Crambe hispanica</t>
+  </si>
+  <si>
+    <t>Crataegus azarolus</t>
+  </si>
+  <si>
+    <t>Crocus sativus</t>
+  </si>
+  <si>
+    <t>Crotalaria juncea</t>
+  </si>
+  <si>
+    <t>Croton tiglium</t>
+  </si>
+  <si>
+    <t>Cucumis anguria</t>
+  </si>
+  <si>
+    <t>Cucumis melo</t>
+  </si>
+  <si>
+    <t>Cucumis sativus</t>
+  </si>
+  <si>
+    <t>Cucurbita argyrosperma</t>
+  </si>
+  <si>
+    <t>Cucurbita ficifolia</t>
+  </si>
+  <si>
+    <t>Cucurbita maxima</t>
+  </si>
+  <si>
+    <t>Cucurbita moschata</t>
+  </si>
+  <si>
+    <t>Cucurbita pepo</t>
+  </si>
+  <si>
+    <t>Cuminum cyminum</t>
+  </si>
+  <si>
+    <t>Curcuma longa</t>
+  </si>
+  <si>
+    <t>Cydonia oblonga</t>
+  </si>
+  <si>
+    <t>Cymbopogon citratus</t>
+  </si>
+  <si>
+    <t>Cymbopogon nardus</t>
+  </si>
+  <si>
+    <t>Cymbopogon winterianus</t>
+  </si>
+  <si>
+    <t>Cynara cardunculus</t>
+  </si>
+  <si>
+    <t>Cyperus esculentus</t>
+  </si>
+  <si>
+    <t>Dactylis glomerata</t>
+  </si>
+  <si>
+    <t>Daucus carota</t>
+  </si>
+  <si>
+    <t>Desmodium intortum</t>
+  </si>
+  <si>
+    <t>Desmodium uncinatum</t>
+  </si>
+  <si>
+    <t>Digitaria exilis</t>
+  </si>
+  <si>
+    <t>Digitaria iburua</t>
+  </si>
+  <si>
+    <t>Dimocarpus longan</t>
+  </si>
+  <si>
+    <t>Dioscorea alata</t>
+  </si>
+  <si>
+    <t>Dioscorea cayenensis</t>
+  </si>
+  <si>
+    <t>Dioscorea cayennensis</t>
+  </si>
+  <si>
+    <t>Dioscorea rotundata</t>
+  </si>
+  <si>
+    <t>Diospyros kaki</t>
+  </si>
+  <si>
+    <t>Durio zibethinus</t>
+  </si>
+  <si>
+    <t>Dyera costulata</t>
+  </si>
+  <si>
+    <t>Echinochloa esculenta</t>
+  </si>
+  <si>
+    <t>Echinochloa frumentacea</t>
+  </si>
+  <si>
+    <t>Elaeis guineensis</t>
+  </si>
+  <si>
+    <t>Elaeis oleifera</t>
+  </si>
+  <si>
+    <t>Elettaria cardamomum</t>
+  </si>
+  <si>
+    <t>Eleusine coracana</t>
+  </si>
+  <si>
+    <t>Eragrostis tef</t>
+  </si>
+  <si>
+    <t>Eriobotrya japonica</t>
+  </si>
+  <si>
+    <t>Fagopyrum esculentum</t>
+  </si>
+  <si>
+    <t>Fagopyrum tataricum</t>
+  </si>
+  <si>
+    <t>Fagus sylvatica</t>
+  </si>
+  <si>
+    <t>Festuca</t>
+  </si>
+  <si>
+    <t>Festuca arundinacea</t>
+  </si>
+  <si>
+    <t>Festuca gigantea</t>
+  </si>
+  <si>
+    <t>Festuca heterophylla</t>
+  </si>
+  <si>
+    <t>Festuca ovina</t>
+  </si>
+  <si>
+    <t>Festuca pratensis</t>
+  </si>
+  <si>
+    <t>Festuca rubra</t>
+  </si>
+  <si>
+    <t>Ficus carica</t>
+  </si>
+  <si>
+    <t>Foeniculum vulgare</t>
+  </si>
+  <si>
+    <t>Fortunella japonica</t>
+  </si>
+  <si>
+    <t>Fragaria ananassa</t>
+  </si>
+  <si>
+    <t>Fragaria xananassa</t>
+  </si>
+  <si>
+    <t>Furcraea foetida</t>
+  </si>
+  <si>
+    <t>Furcraea macrophylla</t>
+  </si>
+  <si>
+    <t>Galactia striata</t>
+  </si>
+  <si>
+    <t>Garcinia mangostana</t>
+  </si>
+  <si>
+    <t>Gaylussacia baccata</t>
+  </si>
+  <si>
+    <t>Glycine max</t>
+  </si>
+  <si>
+    <t>Glycyrrhiza glabra</t>
+  </si>
+  <si>
+    <t>Gossypium herbaceum</t>
+  </si>
+  <si>
+    <t>Gossypium hirsutum</t>
+  </si>
+  <si>
+    <t>Guizotia abyssinica</t>
+  </si>
+  <si>
+    <t>Gynandropsis gynandra</t>
+  </si>
+  <si>
+    <t>Hedysarum coronarium</t>
+  </si>
+  <si>
+    <t>Helianthus annuus</t>
+  </si>
+  <si>
+    <t>Helianthus tuberosus</t>
+  </si>
+  <si>
+    <t>Hevea brasiliensis</t>
+  </si>
+  <si>
+    <t>Hibiscus cannabinus</t>
+  </si>
+  <si>
+    <t>Hibiscus sabdariffa</t>
+  </si>
+  <si>
+    <t>Hordeum vulgare</t>
+  </si>
+  <si>
+    <t>Humulus lupulus</t>
+  </si>
+  <si>
+    <t>Ilex paraguariensis</t>
+  </si>
+  <si>
+    <t>Illicium verum</t>
+  </si>
+  <si>
+    <t>Indigofera hirsuta</t>
+  </si>
+  <si>
+    <t>Indigofera spicata</t>
+  </si>
+  <si>
+    <t>Indigofera suffruticosa</t>
+  </si>
+  <si>
+    <t>Ipomoea batatas</t>
+  </si>
+  <si>
+    <t>Jatropha curcas</t>
+  </si>
+  <si>
+    <t>Juglans nigra</t>
+  </si>
+  <si>
+    <t>Juglans regia</t>
+  </si>
+  <si>
+    <t>Kummerowia stipulacea</t>
+  </si>
+  <si>
+    <t>Kummerowia striata</t>
+  </si>
+  <si>
+    <t>Lablab purpureus</t>
+  </si>
+  <si>
+    <t>Lactuca sativa</t>
+  </si>
+  <si>
+    <t>Lagenaria siceraria</t>
+  </si>
+  <si>
+    <t>Lathyrus sativus</t>
+  </si>
+  <si>
+    <t>Laurus nobilis</t>
+  </si>
+  <si>
+    <t>Lavandula angustifolia</t>
+  </si>
+  <si>
+    <t>Lens culinaris</t>
+  </si>
+  <si>
+    <t>Lepidium meyenii</t>
+  </si>
+  <si>
+    <t>Lepidium sativum</t>
+  </si>
+  <si>
+    <t>Lespedeza cuneata</t>
+  </si>
+  <si>
+    <t>Lespedeza stipulacea</t>
+  </si>
+  <si>
+    <t>Lespedeza striata</t>
+  </si>
+  <si>
+    <t>Leucaena leucocephala</t>
+  </si>
+  <si>
+    <t>Licania rigida</t>
+  </si>
+  <si>
+    <t>Linum usitatissimum</t>
+  </si>
+  <si>
+    <t>Litchi chinensis</t>
+  </si>
+  <si>
+    <t>Lolium hybridum</t>
+  </si>
+  <si>
+    <t>Lolium multiflorum</t>
+  </si>
+  <si>
+    <t>Lolium perenne</t>
+  </si>
+  <si>
+    <t>Lolium rigidum</t>
+  </si>
+  <si>
+    <t>Lolium temulentum</t>
+  </si>
+  <si>
+    <t>Lolium xhybridum</t>
+  </si>
+  <si>
+    <t>Lotus corniculatus</t>
+  </si>
+  <si>
+    <t>Lotus subbiflorus</t>
+  </si>
+  <si>
+    <t>Lotus uliginosus</t>
+  </si>
+  <si>
+    <t>Luffa acutangula</t>
+  </si>
+  <si>
+    <t>Luffa aegyptiaca</t>
+  </si>
+  <si>
+    <t>Lupinus albus</t>
+  </si>
+  <si>
+    <t>Lupinus angustifolius</t>
+  </si>
+  <si>
+    <t>Lupinus luteus</t>
+  </si>
+  <si>
+    <t>Lupinus mutabilis</t>
+  </si>
+  <si>
+    <t>Lygeum spartum</t>
+  </si>
+  <si>
+    <t>Macadamia integrifolia</t>
+  </si>
+  <si>
+    <t>Macadamia tetraphylla</t>
+  </si>
+  <si>
+    <t>Macroptilium atropurpureum</t>
+  </si>
+  <si>
+    <t>Madhuca longifolia</t>
+  </si>
+  <si>
+    <t>Malpighia emarginata</t>
+  </si>
+  <si>
+    <t>Malus domestica</t>
+  </si>
+  <si>
+    <t>Mammea americana</t>
+  </si>
+  <si>
+    <t>Mangifera indica</t>
+  </si>
+  <si>
+    <t>Manihot carthagenensis</t>
+  </si>
+  <si>
+    <t>Manihot esculenta</t>
+  </si>
+  <si>
+    <t>Manihot glaziovii</t>
+  </si>
+  <si>
+    <t>Manilkara chicle</t>
+  </si>
+  <si>
+    <t>Manilkara zapota</t>
+  </si>
+  <si>
+    <t>Maranta arundinacea</t>
+  </si>
+  <si>
+    <t>Medicago arborea</t>
+  </si>
+  <si>
+    <t>Medicago falcata</t>
+  </si>
+  <si>
+    <t>Medicago rigidula</t>
+  </si>
+  <si>
+    <t>Medicago sativa</t>
+  </si>
+  <si>
+    <t>Medicago scutellata</t>
+  </si>
+  <si>
+    <t>Medicago truncatula</t>
+  </si>
+  <si>
+    <t>Melilotus albus</t>
+  </si>
+  <si>
+    <t>Melilotus officinalis</t>
+  </si>
+  <si>
+    <t>Mentha piperita</t>
+  </si>
+  <si>
+    <t>Mentha xpiperita</t>
+  </si>
+  <si>
+    <t>Mespilus germanica</t>
+  </si>
+  <si>
+    <t>Metroxylon sagu</t>
+  </si>
+  <si>
+    <t>Millettia pinnata</t>
+  </si>
+  <si>
+    <t>Mirabilis expansa</t>
+  </si>
+  <si>
+    <t>Momordica charantia</t>
+  </si>
+  <si>
+    <t>Morus alba</t>
+  </si>
+  <si>
+    <t>Morus nigra</t>
+  </si>
+  <si>
+    <t>Morus rubra</t>
+  </si>
+  <si>
+    <t>Mucuna pruriens</t>
+  </si>
+  <si>
+    <t>Musa acuminata</t>
+  </si>
+  <si>
+    <t>Musa balbisiana</t>
+  </si>
+  <si>
+    <t>Musa textilis</t>
+  </si>
+  <si>
+    <t>Myristica fragrans</t>
+  </si>
+  <si>
+    <t>Myrtus communis</t>
+  </si>
+  <si>
+    <t>Nasturtium officinale</t>
+  </si>
+  <si>
+    <t>Neoglaziovia variegata</t>
+  </si>
+  <si>
+    <t>Neonotonia wightii</t>
+  </si>
+  <si>
+    <t>Nephelium lappaceum</t>
+  </si>
+  <si>
+    <t>Neustanthus phaseoloides</t>
+  </si>
+  <si>
+    <t>Nicotiana tabacum</t>
+  </si>
+  <si>
+    <t>Ocimum basilicum</t>
+  </si>
+  <si>
+    <t>Oenanthe javanica</t>
+  </si>
+  <si>
+    <t>Olea europaea</t>
+  </si>
+  <si>
+    <t>Onobrychis viciifolia</t>
+  </si>
+  <si>
+    <t>Opuntia ficus-indica</t>
+  </si>
+  <si>
+    <t>Origanum majorana</t>
+  </si>
+  <si>
+    <t>Origanum vulgare</t>
+  </si>
+  <si>
+    <t>Ornithopus sativus</t>
+  </si>
+  <si>
+    <t>Oryza glaberrima</t>
+  </si>
+  <si>
+    <t>Oryza sativa</t>
+  </si>
+  <si>
+    <t>Oxalis tuberosa</t>
+  </si>
+  <si>
+    <t>Pachyrhizus ahipa</t>
+  </si>
+  <si>
+    <t>Pachyrhizus erosus</t>
+  </si>
+  <si>
+    <t>Palaquium gutta</t>
+  </si>
+  <si>
+    <t>Panicum miliaceum</t>
+  </si>
+  <si>
+    <t>Panicum sumatrense</t>
+  </si>
+  <si>
+    <t>Papaver somniferum</t>
+  </si>
+  <si>
+    <t>Parthenium argentatum</t>
+  </si>
+  <si>
+    <t>Paspalum scrobiculatum</t>
+  </si>
+  <si>
+    <t>Passiflora edulis</t>
+  </si>
+  <si>
+    <t>Passiflora ligularis</t>
+  </si>
+  <si>
+    <t>Pastinaca sativa</t>
+  </si>
+  <si>
+    <t>Pennisetum glaucum</t>
+  </si>
+  <si>
+    <t>Perilla frutescens</t>
+  </si>
+  <si>
+    <t>Persea americana</t>
+  </si>
+  <si>
+    <t>Petroselinum crispum</t>
+  </si>
+  <si>
+    <t>Phalaris aquatica</t>
+  </si>
+  <si>
+    <t>Phalaris arundinacea</t>
+  </si>
+  <si>
+    <t>Phalaris canariensis</t>
+  </si>
+  <si>
+    <t>Phaseolus acutifolius</t>
+  </si>
+  <si>
+    <t>Phaseolus coccineus</t>
+  </si>
+  <si>
+    <t>Phaseolus dumosus</t>
+  </si>
+  <si>
+    <t>Phaseolus lunatus</t>
+  </si>
+  <si>
+    <t>Phaseolus vulgaris</t>
+  </si>
+  <si>
+    <t>Phleum pratense</t>
+  </si>
+  <si>
+    <t>Phoenix dactylifera</t>
+  </si>
+  <si>
+    <t>Phormium tenax</t>
+  </si>
+  <si>
+    <t>Phyllostachys edulis</t>
+  </si>
+  <si>
+    <t>Physalis ixocarpa</t>
+  </si>
+  <si>
+    <t>Physalis peruviana</t>
+  </si>
+  <si>
+    <t>Physalis philadelphica</t>
+  </si>
+  <si>
+    <t>Physalis pubescens</t>
+  </si>
+  <si>
+    <t>Pimenta dioica</t>
+  </si>
+  <si>
+    <t>Pimpinella anisum</t>
+  </si>
+  <si>
+    <t>Pinus pinea</t>
+  </si>
+  <si>
+    <t>Piper nigrum</t>
+  </si>
+  <si>
+    <t>Pistacia vera</t>
+  </si>
+  <si>
+    <t>Pisum sativum</t>
+  </si>
+  <si>
+    <t>Poa alpina</t>
+  </si>
+  <si>
+    <t>Poa annua</t>
+  </si>
+  <si>
+    <t>Poa pratensis</t>
+  </si>
+  <si>
+    <t>Pongamia glabra</t>
+  </si>
+  <si>
+    <t>Pouteria sapota</t>
+  </si>
+  <si>
+    <t>Prosopis affinis</t>
+  </si>
+  <si>
+    <t>Prosopis alba</t>
+  </si>
+  <si>
+    <t>Prosopis chilensis</t>
+  </si>
+  <si>
+    <t>Prosopis nigra</t>
+  </si>
+  <si>
+    <t>Prosopis pallida</t>
+  </si>
+  <si>
+    <t>Prunus armeniaca</t>
+  </si>
+  <si>
+    <t>Prunus avium</t>
+  </si>
+  <si>
+    <t>Prunus cerasifera</t>
+  </si>
+  <si>
+    <t>Prunus cerasus</t>
+  </si>
+  <si>
+    <t>Prunus domestica</t>
+  </si>
+  <si>
+    <t>Prunus dulcis</t>
+  </si>
+  <si>
+    <t>Prunus persica</t>
+  </si>
+  <si>
+    <t>Prunus salicina</t>
+  </si>
+  <si>
+    <t>Psidium guajava</t>
+  </si>
+  <si>
+    <t>Psophocarpus tetragonolobus</t>
+  </si>
+  <si>
+    <t>Pueraria phaseoloides</t>
+  </si>
+  <si>
+    <t>Punica granatum</t>
+  </si>
+  <si>
+    <t>Pyrus communis</t>
+  </si>
+  <si>
+    <t>Pyrus pyrifolia</t>
+  </si>
+  <si>
+    <t>Pyrus ussuriensis</t>
+  </si>
+  <si>
+    <t>Raphanus sativus</t>
+  </si>
+  <si>
+    <t>Rheum rhabarbarum</t>
+  </si>
+  <si>
+    <t>Rhynchosia minima</t>
+  </si>
+  <si>
+    <t>Rhynchosia reticulata</t>
+  </si>
+  <si>
+    <t>Ribes nigrum</t>
+  </si>
+  <si>
+    <t>Ribes rubrum</t>
+  </si>
+  <si>
+    <t>Ribes uva-crispa</t>
+  </si>
+  <si>
+    <t>Ricinus communis</t>
+  </si>
+  <si>
+    <t>Rosmarinus officinalis</t>
+  </si>
+  <si>
+    <t>Rubus idaeus</t>
+  </si>
+  <si>
+    <t>Rubus occidentalis</t>
+  </si>
+  <si>
+    <t>Rubus plicatus</t>
+  </si>
+  <si>
+    <t>Rumex acetosa</t>
+  </si>
+  <si>
+    <t>Saccharum officinarum</t>
+  </si>
+  <si>
+    <t>Salsola vermiculata</t>
+  </si>
+  <si>
+    <t>Sambucus nigra</t>
+  </si>
+  <si>
+    <t>Samuela carnerosana</t>
+  </si>
+  <si>
+    <t>Sansevieria trifasciata</t>
+  </si>
+  <si>
+    <t>Sapium sebiferum</t>
+  </si>
+  <si>
+    <t>Satureja hortensis</t>
+  </si>
+  <si>
+    <t>Satureja montana</t>
+  </si>
+  <si>
+    <t>Scorzonera hispanica</t>
+  </si>
+  <si>
+    <t>Secale cereale</t>
+  </si>
+  <si>
+    <t>Sechium edule</t>
+  </si>
+  <si>
+    <t>Securigera varia</t>
+  </si>
+  <si>
+    <t>Sesamum indicum</t>
+  </si>
+  <si>
+    <t>Sesbania sesban</t>
+  </si>
+  <si>
+    <t>Setaria italica</t>
+  </si>
+  <si>
+    <t>Shorea aptera</t>
+  </si>
+  <si>
+    <t>Shorea palembanica</t>
+  </si>
+  <si>
+    <t>Shorea robusta</t>
+  </si>
+  <si>
+    <t>Shorea stenocarpa</t>
+  </si>
+  <si>
+    <t>Simmondsia chinensis</t>
+  </si>
+  <si>
+    <t>Smallanthus sonchifolius</t>
+  </si>
+  <si>
+    <t>Solanum aethiopicum</t>
+  </si>
+  <si>
+    <t>Solanum ajanhuiri</t>
+  </si>
+  <si>
+    <t>Solanum americanum</t>
+  </si>
+  <si>
+    <t>Solanum betaceum</t>
+  </si>
+  <si>
+    <t>Solanum curtilobum</t>
+  </si>
+  <si>
+    <t>Solanum juzepczukii</t>
+  </si>
+  <si>
+    <t>Solanum lycopersicum</t>
+  </si>
+  <si>
+    <t>Solanum melongena</t>
+  </si>
+  <si>
+    <t>Solanum muricatum</t>
+  </si>
+  <si>
+    <t>Solanum quitoense</t>
+  </si>
+  <si>
+    <t>Solanum tuberosum</t>
+  </si>
+  <si>
+    <t>Sorbus domestica</t>
+  </si>
+  <si>
+    <t>Sorghum bicolor</t>
+  </si>
+  <si>
+    <t>Spinacia oleracea</t>
+  </si>
+  <si>
+    <t>Spondias mombin</t>
+  </si>
+  <si>
+    <t>Spondias purpurea</t>
+  </si>
+  <si>
+    <t>Stillingia sebifera</t>
+  </si>
+  <si>
+    <t>Stipa tenacissima</t>
+  </si>
+  <si>
+    <t>Stylosanthes hamata</t>
+  </si>
+  <si>
+    <t>Stylosanthes humilis</t>
+  </si>
+  <si>
+    <t>Stylosanthes scabra</t>
+  </si>
+  <si>
+    <t>Syzygium aromaticum</t>
+  </si>
+  <si>
+    <t>Talinum fruticosum</t>
+  </si>
+  <si>
+    <t>Tamarindus indica</t>
+  </si>
+  <si>
+    <t>Tanacetum cinerariifolium</t>
+  </si>
+  <si>
+    <t>Tetragonia tetragonoides</t>
+  </si>
+  <si>
+    <t>Theobroma cacao</t>
+  </si>
+  <si>
+    <t>Thymus vulgaris</t>
+  </si>
+  <si>
+    <t>Tragopogon porrifolius</t>
+  </si>
+  <si>
+    <t>Triadica sebifera</t>
+  </si>
+  <si>
+    <t>Trichosanthes cucumerina</t>
+  </si>
+  <si>
+    <t>Trifolium agrocicerum</t>
+  </si>
+  <si>
+    <t>Trifolium alexandrinum</t>
+  </si>
+  <si>
+    <t>Trifolium alpestre</t>
+  </si>
+  <si>
+    <t>Trifolium ambiguum</t>
+  </si>
+  <si>
+    <t>Trifolium angustifolium</t>
+  </si>
+  <si>
+    <t>Trifolium arvense</t>
+  </si>
+  <si>
+    <t>Trifolium hybridum</t>
+  </si>
+  <si>
+    <t>Trifolium incarnatum</t>
+  </si>
+  <si>
+    <t>Trifolium pratense</t>
+  </si>
+  <si>
+    <t>Trifolium repens</t>
+  </si>
+  <si>
+    <t>Trifolium resupinatum</t>
+  </si>
+  <si>
+    <t>Trifolium rueppellianum</t>
+  </si>
+  <si>
+    <t>Trifolium semipilosum</t>
+  </si>
+  <si>
+    <t>Trifolium subterraneum</t>
+  </si>
+  <si>
+    <t>Trifolium vesiculosum</t>
+  </si>
+  <si>
+    <t>Trigonella foenum-graecum</t>
+  </si>
+  <si>
+    <t>Tripsacum laxum</t>
+  </si>
+  <si>
+    <t>Triticosecale blaringhemii</t>
+  </si>
+  <si>
+    <t>Triticosecale neoblaringhemii</t>
+  </si>
+  <si>
+    <t>Triticosecale schlanstedtense</t>
+  </si>
+  <si>
+    <t>Triticosecale semisecale</t>
+  </si>
+  <si>
+    <t>Triticum ×petropavlovskyi</t>
+  </si>
+  <si>
+    <t>Triticum aestivum</t>
+  </si>
+  <si>
+    <t>Triticum durum</t>
+  </si>
+  <si>
+    <t>Triticum flaksbergeri</t>
+  </si>
+  <si>
+    <t>Triticum ispahanicum</t>
+  </si>
+  <si>
+    <t>Triticum kiharae</t>
+  </si>
+  <si>
+    <t>Triticum monococcum</t>
+  </si>
+  <si>
+    <t>Triticum timopheevii</t>
+  </si>
+  <si>
+    <t>Triticum turgidum</t>
+  </si>
+  <si>
+    <t>Triticum vavilovii</t>
+  </si>
+  <si>
+    <t>Triticum zhukovsky</t>
+  </si>
+  <si>
+    <t>Tropaeolum tuberosum</t>
+  </si>
+  <si>
+    <t>Ullucus tuberosus</t>
+  </si>
+  <si>
+    <t>Urena lobata</t>
+  </si>
+  <si>
+    <t>Urena procumbens</t>
+  </si>
+  <si>
+    <t>Urena sinuata</t>
+  </si>
+  <si>
+    <t>Urochloa brizantha</t>
+  </si>
+  <si>
+    <t>Urochloa humidicola</t>
+  </si>
+  <si>
+    <t>Urochloa ruziziensis</t>
+  </si>
+  <si>
+    <t>Vaccinium angustifolium</t>
+  </si>
+  <si>
+    <t>Vaccinium corymbosum</t>
+  </si>
+  <si>
+    <t>Vaccinium macrocarpon</t>
+  </si>
+  <si>
+    <t>Vaccinium virgatum</t>
+  </si>
+  <si>
+    <t>Vanilla planifolia</t>
+  </si>
+  <si>
+    <t>Vanilla pompona</t>
+  </si>
+  <si>
+    <t>Vanilla tahitensis</t>
+  </si>
+  <si>
+    <t>Vanilla xtahitensis</t>
+  </si>
+  <si>
+    <t>Vasconcellea heilbornii</t>
+  </si>
+  <si>
+    <t>Vasconcellea xheilbornii</t>
+  </si>
+  <si>
+    <t>Vernicia fordii</t>
+  </si>
+  <si>
+    <t>Vicia articulata</t>
+  </si>
+  <si>
+    <t>Vicia faba</t>
+  </si>
+  <si>
+    <t>Vicia narbonensis</t>
+  </si>
+  <si>
+    <t>Vicia pannonica</t>
+  </si>
+  <si>
+    <t>Vicia sativa</t>
+  </si>
+  <si>
+    <t>Vigna aconitifolia</t>
+  </si>
+  <si>
+    <t>Vigna angularis</t>
+  </si>
+  <si>
+    <t>Vigna mungo</t>
+  </si>
+  <si>
+    <t>Vigna radiata</t>
+  </si>
+  <si>
+    <t>Vigna subterranea</t>
+  </si>
+  <si>
+    <t>Vigna umbellata</t>
+  </si>
+  <si>
+    <t>Vigna unguiculata</t>
+  </si>
+  <si>
+    <t>Vitellaria paradoxa</t>
+  </si>
+  <si>
+    <t>Vitis vinifera</t>
+  </si>
+  <si>
+    <t>Xanthosoma sagittifolium</t>
+  </si>
+  <si>
+    <t>xTriticosecale blaringhemii</t>
+  </si>
+  <si>
+    <t>xTriticosecale neoblaringhemii</t>
+  </si>
+  <si>
+    <t>xTriticosecale schlanstedtense</t>
+  </si>
+  <si>
+    <t>xTriticosecale semisecale</t>
+  </si>
+  <si>
+    <t>Yucca carnerosana</t>
+  </si>
+  <si>
+    <t>Zea mays</t>
+  </si>
+  <si>
+    <t>Zingiber officinale</t>
+  </si>
+  <si>
+    <t>Zizania palustris</t>
+  </si>
+  <si>
+    <t>Ziziphus jujuba</t>
+  </si>
+  <si>
+    <t>Zornia latifolia</t>
+  </si>
+  <si>
+    <t>Musa</t>
+  </si>
+  <si>
+    <t>Malpighia</t>
+  </si>
+  <si>
+    <t>Canna</t>
+  </si>
+  <si>
+    <t>Blighia</t>
+  </si>
+  <si>
+    <t>Coix</t>
+  </si>
+  <si>
+    <t>Vigna</t>
+  </si>
+  <si>
+    <t>Solanum</t>
+  </si>
+  <si>
+    <t>Pachyrhizus</t>
+  </si>
+  <si>
+    <t>Lygeum</t>
+  </si>
+  <si>
+    <t>Medicago</t>
+  </si>
+  <si>
+    <t>Pimenta</t>
+  </si>
+  <si>
+    <t>Prunus</t>
+  </si>
+  <si>
+    <t>Amaranthus</t>
+  </si>
+  <si>
+    <t>Pimpinella</t>
+  </si>
+  <si>
+    <t>Bixa</t>
+  </si>
+  <si>
+    <t>Malus</t>
+  </si>
+  <si>
+    <t>Areca</t>
+  </si>
+  <si>
+    <t>Arracacia</t>
+  </si>
+  <si>
+    <t>Maranta</t>
+  </si>
+  <si>
+    <t>Cynara</t>
+  </si>
+  <si>
+    <t>Annona</t>
+  </si>
+  <si>
+    <t>Persea</t>
+  </si>
+  <si>
+    <t>Crataegus</t>
+  </si>
+  <si>
+    <t>Vasconcellea</t>
+  </si>
+  <si>
+    <t>Illicium</t>
+  </si>
+  <si>
+    <t>Bambusa, Phyllostachys</t>
+  </si>
+  <si>
+    <t>Hordeum</t>
+  </si>
+  <si>
+    <t>Ocimum</t>
+  </si>
+  <si>
+    <t>Laurus</t>
+  </si>
+  <si>
+    <t>Fagus</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Momordica</t>
+  </si>
+  <si>
+    <t>Scorzonera</t>
+  </si>
+  <si>
+    <t>Vaccinium</t>
+  </si>
+  <si>
+    <t>Brachiaria, Urochloa</t>
+  </si>
+  <si>
+    <t>Bertholletia</t>
+  </si>
+  <si>
+    <t>Artocarpus</t>
+  </si>
+  <si>
+    <t>Fagopyrum</t>
+  </si>
+  <si>
+    <t>Caryocar</t>
+  </si>
+  <si>
+    <t>Cucurbita</t>
+  </si>
+  <si>
+    <t>Brassica</t>
+  </si>
+  <si>
+    <t>Urena</t>
+  </si>
+  <si>
+    <t>Chrysophyllum</t>
+  </si>
+  <si>
+    <t>Lagenaria</t>
+  </si>
+  <si>
+    <t>Aleurites</t>
+  </si>
+  <si>
+    <t>Capparis</t>
+  </si>
+  <si>
+    <t>Averrhoa</t>
+  </si>
+  <si>
+    <t>Carum</t>
+  </si>
+  <si>
+    <t>Amomum, Elletaria</t>
+  </si>
+  <si>
+    <t>Samuela, Yucca</t>
+  </si>
+  <si>
+    <t>Neoglaziovia</t>
+  </si>
+  <si>
+    <t>Ceratonia</t>
+  </si>
+  <si>
+    <t>Daucus</t>
+  </si>
+  <si>
+    <t>Anacardium</t>
+  </si>
+  <si>
+    <t>Manihot</t>
+  </si>
+  <si>
+    <t>Ricinus</t>
+  </si>
+  <si>
+    <t>Apium</t>
+  </si>
+  <si>
+    <t>Talinum</t>
+  </si>
+  <si>
+    <t>Sechium</t>
+  </si>
+  <si>
+    <t>Anthriscus</t>
+  </si>
+  <si>
+    <t>Castanea</t>
+  </si>
+  <si>
+    <t>Cicer</t>
+  </si>
+  <si>
+    <t>Manilkara</t>
+  </si>
+  <si>
+    <t>Cichorium</t>
+  </si>
+  <si>
+    <t>Capsicum</t>
+  </si>
+  <si>
+    <t>Astrocaryum</t>
+  </si>
+  <si>
+    <t>Cyperus</t>
+  </si>
+  <si>
+    <t>Cinnamomum</t>
+  </si>
+  <si>
+    <t>Cymbopogon</t>
+  </si>
+  <si>
+    <t>Trifolium</t>
+  </si>
+  <si>
+    <t>Syzygium</t>
+  </si>
+  <si>
+    <t>Theobroma</t>
+  </si>
+  <si>
+    <t>Cocos</t>
+  </si>
+  <si>
+    <t>Coffea</t>
+  </si>
+  <si>
+    <t>Phaseolus</t>
+  </si>
+  <si>
+    <t>Coriandrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronilla, Securigera </t>
+  </si>
+  <si>
+    <t>Gossypium</t>
+  </si>
+  <si>
+    <t>Lepidium</t>
+  </si>
+  <si>
+    <t>Cucumis</t>
+  </si>
+  <si>
+    <t>Cuminum</t>
+  </si>
+  <si>
+    <t>Ribes</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Abroma</t>
+  </si>
+  <si>
+    <t>Anethum</t>
+  </si>
+  <si>
+    <t>Durio</t>
+  </si>
+  <si>
+    <t>Sambucus</t>
+  </si>
+  <si>
+    <t>Stipa</t>
+  </si>
+  <si>
+    <t>Vicia</t>
+  </si>
+  <si>
+    <t>Acca</t>
+  </si>
+  <si>
+    <t>Foeniculum</t>
+  </si>
+  <si>
+    <t>Trigonella</t>
+  </si>
+  <si>
+    <t>Ficus</t>
+  </si>
+  <si>
+    <t>Eleusine</t>
+  </si>
+  <si>
+    <t>Furcraea</t>
+  </si>
+  <si>
+    <t>Linum</t>
+  </si>
+  <si>
+    <t>Digitaria</t>
+  </si>
+  <si>
+    <t>Setaria</t>
+  </si>
+  <si>
+    <t>Allium</t>
+  </si>
+  <si>
+    <t>Zingiber</t>
+  </si>
+  <si>
+    <t>Vitis</t>
+  </si>
+  <si>
+    <t>Lathyrus</t>
+  </si>
+  <si>
+    <t>Arachis</t>
+  </si>
+  <si>
+    <t>Psidium</t>
+  </si>
+  <si>
+    <t>Parthenium</t>
+  </si>
+  <si>
+    <t>Palaquium</t>
+  </si>
+  <si>
+    <t>Corylus</t>
+  </si>
+  <si>
+    <t>Cannabis</t>
+  </si>
+  <si>
+    <t>Humulus</t>
+  </si>
+  <si>
+    <t>Armoracia</t>
+  </si>
+  <si>
+    <t>Gaylussacia</t>
+  </si>
+  <si>
+    <t>Canavalia</t>
+  </si>
+  <si>
+    <t>Echinochloa</t>
+  </si>
+  <si>
+    <t>Dyera</t>
+  </si>
+  <si>
+    <t>Helianthus</t>
+  </si>
+  <si>
+    <t>Simmonsia</t>
+  </si>
+  <si>
+    <t>Ziziphus</t>
+  </si>
+  <si>
+    <t>Corchorus</t>
+  </si>
+  <si>
+    <t>Chenopodium</t>
+  </si>
+  <si>
+    <t>Ceiba</t>
+  </si>
+  <si>
+    <t>Vitellaria</t>
+  </si>
+  <si>
+    <t>Hibiscus</t>
+  </si>
+  <si>
+    <t>Actinidia</t>
+  </si>
+  <si>
+    <t>Paspalum</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>Fortunella</t>
+  </si>
+  <si>
+    <t>Lavandula</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lactuca</t>
+  </si>
+  <si>
+    <t>Glycyrrhiza</t>
+  </si>
+  <si>
+    <t>Panicum</t>
+  </si>
+  <si>
+    <t>Dimocarpus</t>
+  </si>
+  <si>
+    <t>Eriobotrya</t>
+  </si>
+  <si>
+    <t>Lupinus</t>
+  </si>
+  <si>
+    <t>Macadamia</t>
+  </si>
+  <si>
+    <t>Madhuca</t>
+  </si>
+  <si>
+    <t>Zea</t>
+  </si>
+  <si>
+    <t>Basella</t>
+  </si>
+  <si>
+    <t>Pouteria</t>
+  </si>
+  <si>
+    <t>Mammea</t>
+  </si>
+  <si>
+    <t>Mangifera</t>
+  </si>
+  <si>
+    <t>Garcinia</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>Origanum</t>
+  </si>
+  <si>
+    <t>Tropaeolum</t>
+  </si>
+  <si>
+    <t>Ilex</t>
+  </si>
+  <si>
+    <t>Mirabilis</t>
+  </si>
+  <si>
+    <t>Mespilus</t>
+  </si>
+  <si>
+    <t>Spondias</t>
+  </si>
+  <si>
+    <t>Morus</t>
+  </si>
+  <si>
+    <t>Myrtus</t>
+  </si>
+  <si>
+    <t>Phormium</t>
+  </si>
+  <si>
+    <t>Tetragonia</t>
+  </si>
+  <si>
+    <t>Guizotia</t>
+  </si>
+  <si>
+    <t>Myristica</t>
+  </si>
+  <si>
+    <t>Avena</t>
+  </si>
+  <si>
+    <t>Oxalis</t>
+  </si>
+  <si>
+    <t>Elaeis</t>
+  </si>
+  <si>
+    <t>Licania</t>
+  </si>
+  <si>
+    <t>Abelmoschus</t>
+  </si>
+  <si>
+    <t>Olea</t>
+  </si>
+  <si>
+    <t>Carica</t>
+  </si>
+  <si>
+    <t>Petroselinum</t>
+  </si>
+  <si>
+    <t>Pastinaca</t>
+  </si>
+  <si>
+    <t>Passiflora</t>
+  </si>
+  <si>
+    <t>Asimina</t>
+  </si>
+  <si>
+    <t>Cenchrus, Pennisetum</t>
+  </si>
+  <si>
+    <t>Pyrus</t>
+  </si>
+  <si>
+    <t>Pisum</t>
+  </si>
+  <si>
+    <t>Carya</t>
+  </si>
+  <si>
+    <t>Piper</t>
+  </si>
+  <si>
+    <t>Mentha</t>
+  </si>
+  <si>
+    <t>Diospyros</t>
+  </si>
+  <si>
+    <t>Jatropha</t>
+  </si>
+  <si>
+    <t>Cajanus</t>
+  </si>
+  <si>
+    <t>Canarium</t>
+  </si>
+  <si>
+    <t>Pinus</t>
+  </si>
+  <si>
+    <t>Ananas</t>
+  </si>
+  <si>
+    <t>Pistacia</t>
+  </si>
+  <si>
+    <t>Punica</t>
+  </si>
+  <si>
+    <t>Pongamia, Millettia</t>
+  </si>
+  <si>
+    <t>Papaver</t>
+  </si>
+  <si>
+    <t>Opuntia</t>
+  </si>
+  <si>
+    <t>Pueraria, Neustanthus</t>
+  </si>
+  <si>
+    <t>Croton</t>
+  </si>
+  <si>
+    <t>Chrysanthemum, Tanacetum</t>
+  </si>
+  <si>
+    <t>Cydonia</t>
+  </si>
+  <si>
+    <t>Raphanus</t>
+  </si>
+  <si>
+    <t>Nephelium</t>
+  </si>
+  <si>
+    <t>Boehmeria</t>
+  </si>
+  <si>
+    <t>Rubus</t>
+  </si>
+  <si>
+    <t>Rheum</t>
+  </si>
+  <si>
+    <t>Oryza</t>
+  </si>
+  <si>
+    <t>Rosmarinus</t>
+  </si>
+  <si>
+    <t>Hevea</t>
+  </si>
+  <si>
+    <t>Secale</t>
+  </si>
+  <si>
+    <t>Carthamnus</t>
+  </si>
+  <si>
+    <t>Crocus</t>
+  </si>
+  <si>
+    <t>Metroxylon</t>
+  </si>
+  <si>
+    <t>Tragopogon</t>
+  </si>
+  <si>
+    <t>Satureja</t>
+  </si>
+  <si>
+    <t>Sorbus</t>
+  </si>
+  <si>
+    <t>Sesamum</t>
+  </si>
+  <si>
+    <t>Shorea</t>
+  </si>
+  <si>
+    <t>Trichosanthes</t>
+  </si>
+  <si>
+    <t>Sansevieria</t>
+  </si>
+  <si>
+    <t>Rumex</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>Gynandropsis</t>
+  </si>
+  <si>
+    <t>Spinacia</t>
+  </si>
+  <si>
+    <t>Fragaria</t>
+  </si>
+  <si>
+    <t>Arbutus</t>
+  </si>
+  <si>
+    <t>Saccharum</t>
+  </si>
+  <si>
+    <t>Crotalaria</t>
+  </si>
+  <si>
+    <t>Ipomoea</t>
+  </si>
+  <si>
+    <t>Triadica, Shorea, Sapium, Stillingia</t>
+  </si>
+  <si>
+    <t>Tamarindus</t>
+  </si>
+  <si>
+    <t>Colocasia</t>
+  </si>
+  <si>
+    <t>Artemisia</t>
+  </si>
+  <si>
+    <t>Camellia</t>
+  </si>
+  <si>
+    <t>Eragrostis</t>
+  </si>
+  <si>
+    <t>Thymus</t>
+  </si>
+  <si>
+    <t>Nicotiana</t>
+  </si>
+  <si>
+    <t>Physalis</t>
+  </si>
+  <si>
+    <t>Triticosecale, xTriticosecale</t>
+  </si>
+  <si>
+    <t>Vernicia, Aleurites</t>
+  </si>
+  <si>
+    <t>Curcuma</t>
+  </si>
+  <si>
+    <t>Ullucus</t>
+  </si>
+  <si>
+    <t>Mucuna</t>
+  </si>
+  <si>
+    <t>Abutilon</t>
+  </si>
+  <si>
+    <t>Juglans</t>
+  </si>
+  <si>
+    <t>Oenanthe</t>
+  </si>
+  <si>
+    <t>Nasturtium</t>
+  </si>
+  <si>
+    <t>Citrullus</t>
+  </si>
+  <si>
+    <t>Benincasa</t>
+  </si>
+  <si>
+    <t>Triticum</t>
+  </si>
+  <si>
+    <t>Zizania</t>
+  </si>
+  <si>
+    <t>Psophocarpus</t>
+  </si>
+  <si>
+    <t>Smallanthus</t>
+  </si>
+  <si>
+    <t>Dioscorea</t>
+  </si>
+  <si>
+    <t>Xanthosoma</t>
+  </si>
+  <si>
+    <t>genera</t>
+  </si>
+  <si>
+    <t>taxa</t>
   </si>
 </sst>
 </file>
@@ -24969,8 +27311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7ED19D-4D8E-4C89-AC35-7FB778E26637}">
   <dimension ref="A1:B1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33078,4 +35420,7298 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EFBD89-F77F-47D3-B775-BA0359D7A0AB}">
+  <dimension ref="A1:B356"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>275</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>276</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>277</v>
+      </c>
+      <c r="B280" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>278</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>279</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>280</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>281</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>282</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>283</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>284</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>285</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>286</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>287</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>288</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>289</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>290</v>
+      </c>
+      <c r="B293" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>291</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>292</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>293</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>294</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>295</v>
+      </c>
+      <c r="B298" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>296</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>297</v>
+      </c>
+      <c r="B300" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>298</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>299</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>300</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>301</v>
+      </c>
+      <c r="B304" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>302</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>303</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>304</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>305</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>306</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>307</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>308</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>309</v>
+      </c>
+      <c r="B312" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>310</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>311</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>312</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>313</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>314</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>315</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>316</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>317</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>318</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>319</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>320</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>321</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>322</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>323</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>324</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>325</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>326</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>327</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>328</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>329</v>
+      </c>
+      <c r="B332" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>330</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>331</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>332</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>333</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>334</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>335</v>
+      </c>
+      <c r="B338" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>336</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>337</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>338</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>339</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>340</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>341</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>342</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>343</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>344</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>345</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>346</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>347</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>348</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>349</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>350</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>351</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>352</v>
+      </c>
+      <c r="B355" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>353</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F717114-0CCC-490E-8AC0-0BFB74235F4F}">
+  <dimension ref="A1:B551"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>310</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>274</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>810</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>810</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>810</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>810</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>251</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>252</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>252</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>316</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>151</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>66</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>90</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>90</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>90</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>68</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>286</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>73</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>271</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>60</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>87</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>89</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>94</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>94</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>342</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>342</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>177</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>177</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>95</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>91</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>230</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>177</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>142</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>230</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>100</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>172</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>172</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>103</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>104</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>149</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>107</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>107</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>287</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>314</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>268</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>211</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>110</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>113</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>130</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>267</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>56</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>353</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>111</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>332</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>270</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>96</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>29</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>93</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>115</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>74</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>117</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>117</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>135</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>135</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>187</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>349</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>349</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>349</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>349</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>247</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>120</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>159</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>158</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>158</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>223</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>223</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>70</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>132</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>322</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>188</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>54</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>54</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>44</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>131</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>127</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>173</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>307</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>307</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>139</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>133</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>137</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>202</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>154</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>304</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>182</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>105</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>105</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>219</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>305</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>150</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>313</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>160</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>283</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>168</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>281</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>41</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>152</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>207</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>37</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>155</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>155</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>155</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>315</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>339</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>339</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>179</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>179</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>174</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>180</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>61</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>144</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>43</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>175</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>178</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>192</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>109</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>179</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>179</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>179</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>181</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>224</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>134</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>184</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>186</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>186</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>186</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>186</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>186</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>186</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>189</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>189</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>189</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>190</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>190</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>191</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>191</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>191</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>191</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>193</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>193</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>194</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>195</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>2</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>23</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>199</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>201</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>78</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>76</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>78</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>88</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>88</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>291</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>28</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>14</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>210</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>210</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>245</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>245</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>209</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>288</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>260</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>208</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>46</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>213</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>213</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>213</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>336</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>40</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>256</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>220</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>215</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>341</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>72</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>217</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>273</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>266</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>325</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>42</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>340</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>226</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>228</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>263</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>204</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>231</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>232</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>278</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>279</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>222</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>161</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>148</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>264</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>185</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>261</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>147</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>171</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>236</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>236</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>235</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>239</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>239</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>246</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>34</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>234</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>248</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>248</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>63</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>323</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>284</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>351</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>183</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>102</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>249</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>116</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>218</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>39</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>326</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>326</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>326</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>326</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>15</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>21</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>253</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>244</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>255</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>241</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>258</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>258</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>258</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>260</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>198</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>265</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>265</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>265</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>265</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>265</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>24</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>84</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>257</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>84</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>257</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>16</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>238</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>257</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>146</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>347</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>266</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>259</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>240</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>240</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>240</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>272</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>276</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>277</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>277</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>112</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>112</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>141</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>77</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>282</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>275</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>275</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>275</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>302</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>312</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>290</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>122</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>71</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>300</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>317</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>317</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>292</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>292</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>49</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>285</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>82</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>104</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>294</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>295</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>136</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>317</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>317</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>296</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>317</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>162</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>348</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>8</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>262</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>48</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>328</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>262</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>262</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>327</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>121</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>243</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>216</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>262</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>293</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>301</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>306</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>212</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>212</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>317</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>317</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>123</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>309</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>309</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>309</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>98</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>81</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>318</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>269</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>809</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>99</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>324</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>289</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>317</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>299</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>97</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>97</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>97</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>97</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>97</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>97</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>97</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>97</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>97</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>97</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>97</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>97</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>97</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>97</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>97</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>97</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>97</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>128</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>329</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>330</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>330</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>330</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>330</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>345</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>345</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>345</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>345</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>345</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>345</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>345</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>345</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>345</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>345</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>345</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>205</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>334</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>59</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>59</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>59</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>51</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>51</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>51</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>50</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>50</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>108</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>50</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>335</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>335</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>335</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>335</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>36</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>36</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>331</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>338</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>125</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>338</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>338</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>338</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>206</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>6</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>47</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>214</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>38</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>280</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>106</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>167</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>143</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>350</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>330</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>330</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>330</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>330</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>71</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>196</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>140</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>346</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>163</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>352</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/conf/crops.xlsx
+++ b/data/conf/crops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B205259-2ACF-4263-984F-26CF8D68653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DFB986-2876-4B71-9FA8-5E633034D625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="4" r:id="rId1"/>
@@ -18,10 +18,12 @@
     <sheet name="fao_groups" sheetId="6" r:id="rId3"/>
     <sheet name="regions" sheetId="7" r:id="rId4"/>
     <sheet name="crops_genus" sheetId="9" r:id="rId5"/>
-    <sheet name="taxa" sheetId="8" r:id="rId6"/>
+    <sheet name="crops_taxa" sheetId="8" r:id="rId6"/>
+    <sheet name="crops_common" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crops!$A$1:$E$356</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">crops_genus!$A$1:$B$356</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fao!$A$1:$D$1057</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9662" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10772" uniqueCount="2005">
   <si>
     <t>useable</t>
   </si>
@@ -5518,6 +5520,543 @@
   </si>
   <si>
     <t>taxa</t>
+  </si>
+  <si>
+    <t>Manila fiber</t>
+  </si>
+  <si>
+    <t>Manila hemp</t>
+  </si>
+  <si>
+    <t>Job's tears</t>
+  </si>
+  <si>
+    <t>Azuki bean</t>
+  </si>
+  <si>
+    <t>Andean yam bean</t>
+  </si>
+  <si>
+    <t>Almond</t>
+  </si>
+  <si>
+    <t>Areca nut</t>
+  </si>
+  <si>
+    <t>Betel nut</t>
+  </si>
+  <si>
+    <t>Arrow root</t>
+  </si>
+  <si>
+    <t>Artichoke</t>
+  </si>
+  <si>
+    <t>Cardoon</t>
+  </si>
+  <si>
+    <t>Star anise</t>
+  </si>
+  <si>
+    <t>Bambara groundnut</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Beet</t>
+  </si>
+  <si>
+    <t>Chard</t>
+  </si>
+  <si>
+    <t>Swiss chard</t>
+  </si>
+  <si>
+    <t>Spanish salsify</t>
+  </si>
+  <si>
+    <t>Bread fruit</t>
+  </si>
+  <si>
+    <t>Butter nut</t>
+  </si>
+  <si>
+    <t>Pekea nut</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Brussels sprouts</t>
+  </si>
+  <si>
+    <t>Caisin</t>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+  </si>
+  <si>
+    <t>Collards</t>
+  </si>
+  <si>
+    <t>Kale</t>
+  </si>
+  <si>
+    <t>Kohlrabi</t>
+  </si>
+  <si>
+    <t>Mizuna</t>
+  </si>
+  <si>
+    <t>Mustards</t>
+  </si>
+  <si>
+    <t>Pak-choi</t>
+  </si>
+  <si>
+    <t>Rape</t>
+  </si>
+  <si>
+    <t>Rutabaga</t>
+  </si>
+  <si>
+    <t>Sarson</t>
+  </si>
+  <si>
+    <t>Savoi cabbage</t>
+  </si>
+  <si>
+    <t>Taasai</t>
+  </si>
+  <si>
+    <t>Takana mustard</t>
+  </si>
+  <si>
+    <t>Toria</t>
+  </si>
+  <si>
+    <t>Star apple</t>
+  </si>
+  <si>
+    <t>Bottle gourd</t>
+  </si>
+  <si>
+    <t>Brown mustard</t>
+  </si>
+  <si>
+    <t>Caper</t>
+  </si>
+  <si>
+    <t>Star fruit</t>
+  </si>
+  <si>
+    <t>Cardamom</t>
+  </si>
+  <si>
+    <t>Carob</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Manioc</t>
+  </si>
+  <si>
+    <t>Celeriac</t>
+  </si>
+  <si>
+    <t>Ceylon spinach</t>
+  </si>
+  <si>
+    <t>Mirliton squash</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Chest nut</t>
+  </si>
+  <si>
+    <t>Chick pea</t>
+  </si>
+  <si>
+    <t>Chickpea</t>
+  </si>
+  <si>
+    <t>Garbanzo</t>
+  </si>
+  <si>
+    <t>Endive</t>
+  </si>
+  <si>
+    <t>Radicchio</t>
+  </si>
+  <si>
+    <t>Bell pepper</t>
+  </si>
+  <si>
+    <t>Chile pepper</t>
+  </si>
+  <si>
+    <t>Chilli pepper</t>
+  </si>
+  <si>
+    <t>Trefoil</t>
+  </si>
+  <si>
+    <t>Clove</t>
+  </si>
+  <si>
+    <t>Cilantro</t>
+  </si>
+  <si>
+    <t>Cow pea</t>
+  </si>
+  <si>
+    <t>Cowpea</t>
+  </si>
+  <si>
+    <t>Cranberry</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Gherkin</t>
+  </si>
+  <si>
+    <t>Currant</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Egg plant</t>
+  </si>
+  <si>
+    <t>Abyssinian mustard</t>
+  </si>
+  <si>
+    <t>Ethiopian mustard</t>
+  </si>
+  <si>
+    <t>Broad bean</t>
+  </si>
+  <si>
+    <t>Faba bean</t>
+  </si>
+  <si>
+    <t>Fava bean</t>
+  </si>
+  <si>
+    <t>Horse bean</t>
+  </si>
+  <si>
+    <t>Tickbean</t>
+  </si>
+  <si>
+    <t>Pineapple guava</t>
+  </si>
+  <si>
+    <t>Fig</t>
+  </si>
+  <si>
+    <t>Wild sisal</t>
+  </si>
+  <si>
+    <t>Gooseberry</t>
+  </si>
+  <si>
+    <t>Grape</t>
+  </si>
+  <si>
+    <t>Ground nut</t>
+  </si>
+  <si>
+    <t>Pea nut</t>
+  </si>
+  <si>
+    <t>Peanut</t>
+  </si>
+  <si>
+    <t>Guava</t>
+  </si>
+  <si>
+    <t>Filbert</t>
+  </si>
+  <si>
+    <t>Hazel nut</t>
+  </si>
+  <si>
+    <t>Hazelnut</t>
+  </si>
+  <si>
+    <t>Marijuana</t>
+  </si>
+  <si>
+    <t>Hop</t>
+  </si>
+  <si>
+    <t>Jack fruit</t>
+  </si>
+  <si>
+    <t>Sunchoke</t>
+  </si>
+  <si>
+    <t>Yam bean</t>
+  </si>
+  <si>
+    <t>Chinese date</t>
+  </si>
+  <si>
+    <t>Cañahua</t>
+  </si>
+  <si>
+    <t>Canihua</t>
+  </si>
+  <si>
+    <t>Cañihua</t>
+  </si>
+  <si>
+    <t>Karite nut</t>
+  </si>
+  <si>
+    <t>Shea nut</t>
+  </si>
+  <si>
+    <t>Sheanut</t>
+  </si>
+  <si>
+    <t>Sheanuts</t>
+  </si>
+  <si>
+    <t>Chinese gooseberry</t>
+  </si>
+  <si>
+    <t>quihuicha</t>
+  </si>
+  <si>
+    <t>Kola nut</t>
+  </si>
+  <si>
+    <t>Hyacinth bean</t>
+  </si>
+  <si>
+    <t>Leek</t>
+  </si>
+  <si>
+    <t>Leeks</t>
+  </si>
+  <si>
+    <t>Bergamot</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>Lemons</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>Limes</t>
+  </si>
+  <si>
+    <t>Lentil</t>
+  </si>
+  <si>
+    <t>Lupin</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Clementine</t>
+  </si>
+  <si>
+    <t>Mandarine</t>
+  </si>
+  <si>
+    <t>Tangerine</t>
+  </si>
+  <si>
+    <t>Sugar maple</t>
+  </si>
+  <si>
+    <t>Moth bean</t>
+  </si>
+  <si>
+    <t>Melon</t>
+  </si>
+  <si>
+    <t>Hog plum</t>
+  </si>
+  <si>
+    <t>Lulo</t>
+  </si>
+  <si>
+    <t>Harakeke</t>
+  </si>
+  <si>
+    <t>Mace</t>
+  </si>
+  <si>
+    <t>Oat</t>
+  </si>
+  <si>
+    <t>Palm oil</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Granadilla</t>
+  </si>
+  <si>
+    <t>Nectarine</t>
+  </si>
+  <si>
+    <t>Nectarines</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Peaches</t>
+  </si>
+  <si>
+    <t>Pear</t>
+  </si>
+  <si>
+    <t>Pea</t>
+  </si>
+  <si>
+    <t>Persimmon</t>
+  </si>
+  <si>
+    <t>Barbados nut</t>
+  </si>
+  <si>
+    <t>Pigeon pea</t>
+  </si>
+  <si>
+    <t>Pigeonpea</t>
+  </si>
+  <si>
+    <t>Java almond</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Pistachio</t>
+  </si>
+  <si>
+    <t>Plantain</t>
+  </si>
+  <si>
+    <t>Plum</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Quince</t>
+  </si>
+  <si>
+    <t>Daikon</t>
+  </si>
+  <si>
+    <t>Mustard</t>
+  </si>
+  <si>
+    <t>Blackberries</t>
+  </si>
+  <si>
+    <t>Blackberry</t>
+  </si>
+  <si>
+    <t>Raspberry</t>
+  </si>
+  <si>
+    <t>African Rice</t>
+  </si>
+  <si>
+    <t>Rubber</t>
+  </si>
+  <si>
+    <t>Scarlet runner bean</t>
+  </si>
+  <si>
+    <t>Service-apple</t>
+  </si>
+  <si>
+    <t>Soy bean</t>
+  </si>
+  <si>
+    <t>Soya bean</t>
+  </si>
+  <si>
+    <t>Soyabean</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>Sugarbeet</t>
+  </si>
+  <si>
+    <t>Sweet potato</t>
+  </si>
+  <si>
+    <t>Tallow tree</t>
+  </si>
+  <si>
+    <t>Estragon</t>
+  </si>
+  <si>
+    <t>Cape gooseberry</t>
+  </si>
+  <si>
+    <t>Ground cherry</t>
+  </si>
+  <si>
+    <t>Tamarillo</t>
+  </si>
+  <si>
+    <t>Tung nut</t>
+  </si>
+  <si>
+    <t>Tung tree</t>
+  </si>
+  <si>
+    <t>Walnut</t>
+  </si>
+  <si>
+    <t>Wild rice</t>
+  </si>
+  <si>
+    <t>Yam</t>
+  </si>
+  <si>
+    <t>Cocoyam</t>
+  </si>
+  <si>
+    <t>Yautia</t>
+  </si>
+  <si>
+    <t>common_name</t>
   </si>
 </sst>
 </file>
@@ -35426,8 +35965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EFBD89-F77F-47D3-B775-BA0359D7A0AB}">
   <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38294,7 +38833,7 @@
   <dimension ref="A1:B551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42714,4 +43253,4460 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CB4DAA-0A70-4877-A847-235316A08018}">
+  <dimension ref="A1:B555"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>58</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>58</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>65</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>65</v>
+      </c>
+      <c r="B110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>66</v>
+      </c>
+      <c r="B112" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>68</v>
+      </c>
+      <c r="B115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B116" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>71</v>
+      </c>
+      <c r="B119" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>72</v>
+      </c>
+      <c r="B120" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>74</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>74</v>
+      </c>
+      <c r="B124" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>75</v>
+      </c>
+      <c r="B125" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>75</v>
+      </c>
+      <c r="B126" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>76</v>
+      </c>
+      <c r="B127" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>77</v>
+      </c>
+      <c r="B129" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>78</v>
+      </c>
+      <c r="B130" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>79</v>
+      </c>
+      <c r="B132" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>81</v>
+      </c>
+      <c r="B135" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>82</v>
+      </c>
+      <c r="B136" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>82</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>84</v>
+      </c>
+      <c r="B139" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>84</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>85</v>
+      </c>
+      <c r="B141" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>86</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>86</v>
+      </c>
+      <c r="B143" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>87</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>87</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>87</v>
+      </c>
+      <c r="B147" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>87</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>88</v>
+      </c>
+      <c r="B149" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>89</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>89</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>90</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>90</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>90</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>90</v>
+      </c>
+      <c r="B156" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>91</v>
+      </c>
+      <c r="B157" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>92</v>
+      </c>
+      <c r="B158" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>93</v>
+      </c>
+      <c r="B159" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>94</v>
+      </c>
+      <c r="B160" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>95</v>
+      </c>
+      <c r="B161" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B162" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>97</v>
+      </c>
+      <c r="B164" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>97</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>98</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>98</v>
+      </c>
+      <c r="B167" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>99</v>
+      </c>
+      <c r="B168" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>100</v>
+      </c>
+      <c r="B169" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>100</v>
+      </c>
+      <c r="B170" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>101</v>
+      </c>
+      <c r="B171" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>102</v>
+      </c>
+      <c r="B172" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>103</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>103</v>
+      </c>
+      <c r="B174" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>104</v>
+      </c>
+      <c r="B175" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>105</v>
+      </c>
+      <c r="B176" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>106</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>106</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>106</v>
+      </c>
+      <c r="B179" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>107</v>
+      </c>
+      <c r="B180" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>108</v>
+      </c>
+      <c r="B181" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>108</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>109</v>
+      </c>
+      <c r="B183" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>110</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>110</v>
+      </c>
+      <c r="B185" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>110</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>111</v>
+      </c>
+      <c r="B187" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>112</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>112</v>
+      </c>
+      <c r="B189" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>113</v>
+      </c>
+      <c r="B190" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>114</v>
+      </c>
+      <c r="B191" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>115</v>
+      </c>
+      <c r="B192" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>116</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>116</v>
+      </c>
+      <c r="B194" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>117</v>
+      </c>
+      <c r="B195" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>118</v>
+      </c>
+      <c r="B196" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>119</v>
+      </c>
+      <c r="B197" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>120</v>
+      </c>
+      <c r="B198" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>121</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>121</v>
+      </c>
+      <c r="B200" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>122</v>
+      </c>
+      <c r="B201" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>123</v>
+      </c>
+      <c r="B202" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>124</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>124</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>124</v>
+      </c>
+      <c r="B205" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>125</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>125</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>125</v>
+      </c>
+      <c r="B208" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>125</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>125</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>125</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>126</v>
+      </c>
+      <c r="B212" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>126</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>127</v>
+      </c>
+      <c r="B214" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>128</v>
+      </c>
+      <c r="B215" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>129</v>
+      </c>
+      <c r="B216" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>130</v>
+      </c>
+      <c r="B217" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>131</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>131</v>
+      </c>
+      <c r="B219" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>132</v>
+      </c>
+      <c r="B220" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>133</v>
+      </c>
+      <c r="B221" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>133</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>134</v>
+      </c>
+      <c r="B223" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>134</v>
+      </c>
+      <c r="B224" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>135</v>
+      </c>
+      <c r="B225" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>136</v>
+      </c>
+      <c r="B226" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>137</v>
+      </c>
+      <c r="B227" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>138</v>
+      </c>
+      <c r="B228" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>139</v>
+      </c>
+      <c r="B229" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>140</v>
+      </c>
+      <c r="B230" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>141</v>
+      </c>
+      <c r="B231" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>141</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>142</v>
+      </c>
+      <c r="B233" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>142</v>
+      </c>
+      <c r="B234" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>143</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>143</v>
+      </c>
+      <c r="B236" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>144</v>
+      </c>
+      <c r="B237" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>145</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>145</v>
+      </c>
+      <c r="B239" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>145</v>
+      </c>
+      <c r="B240" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>145</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>145</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>146</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>146</v>
+      </c>
+      <c r="B244" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>147</v>
+      </c>
+      <c r="B245" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>148</v>
+      </c>
+      <c r="B246" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>149</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>149</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>149</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>149</v>
+      </c>
+      <c r="B250" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>150</v>
+      </c>
+      <c r="B251" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>151</v>
+      </c>
+      <c r="B252" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>151</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>152</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>152</v>
+      </c>
+      <c r="B255" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>153</v>
+      </c>
+      <c r="B256" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>154</v>
+      </c>
+      <c r="B257" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>155</v>
+      </c>
+      <c r="B258" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>156</v>
+      </c>
+      <c r="B259" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>157</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>157</v>
+      </c>
+      <c r="B261" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>158</v>
+      </c>
+      <c r="B262" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>159</v>
+      </c>
+      <c r="B263" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>160</v>
+      </c>
+      <c r="B264" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>160</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>161</v>
+      </c>
+      <c r="B266" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>161</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>162</v>
+      </c>
+      <c r="B268" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>163</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>163</v>
+      </c>
+      <c r="B270" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>164</v>
+      </c>
+      <c r="B271" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>165</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>165</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>165</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>165</v>
+      </c>
+      <c r="B275" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>166</v>
+      </c>
+      <c r="B276" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>167</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>167</v>
+      </c>
+      <c r="B278" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>167</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>167</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>167</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>168</v>
+      </c>
+      <c r="B282" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>169</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>169</v>
+      </c>
+      <c r="B284" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>170</v>
+      </c>
+      <c r="B285" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>170</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>171</v>
+      </c>
+      <c r="B287" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>172</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>172</v>
+      </c>
+      <c r="B289" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>173</v>
+      </c>
+      <c r="B290" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>174</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>174</v>
+      </c>
+      <c r="B292" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>175</v>
+      </c>
+      <c r="B293" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>176</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>176</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>176</v>
+      </c>
+      <c r="B296" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>177</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>177</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>177</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>177</v>
+      </c>
+      <c r="B300" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>177</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>177</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>178</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>178</v>
+      </c>
+      <c r="B304" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>179</v>
+      </c>
+      <c r="B305" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>180</v>
+      </c>
+      <c r="B306" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>181</v>
+      </c>
+      <c r="B307" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>182</v>
+      </c>
+      <c r="B308" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>183</v>
+      </c>
+      <c r="B309" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>184</v>
+      </c>
+      <c r="B310" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>185</v>
+      </c>
+      <c r="B311" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>186</v>
+      </c>
+      <c r="B312" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>187</v>
+      </c>
+      <c r="B313" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>188</v>
+      </c>
+      <c r="B314" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>189</v>
+      </c>
+      <c r="B315" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>190</v>
+      </c>
+      <c r="B316" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>191</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>191</v>
+      </c>
+      <c r="B318" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>192</v>
+      </c>
+      <c r="B319" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>193</v>
+      </c>
+      <c r="B320" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>194</v>
+      </c>
+      <c r="B321" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>195</v>
+      </c>
+      <c r="B322" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>196</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>196</v>
+      </c>
+      <c r="B324" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>197</v>
+      </c>
+      <c r="B325" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>198</v>
+      </c>
+      <c r="B326" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>199</v>
+      </c>
+      <c r="B327" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>200</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>200</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>200</v>
+      </c>
+      <c r="B330" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>200</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>201</v>
+      </c>
+      <c r="B332" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>202</v>
+      </c>
+      <c r="B333" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>203</v>
+      </c>
+      <c r="B334" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>203</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>204</v>
+      </c>
+      <c r="B336" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>205</v>
+      </c>
+      <c r="B337" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>206</v>
+      </c>
+      <c r="B338" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>206</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>207</v>
+      </c>
+      <c r="B340" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>208</v>
+      </c>
+      <c r="B341" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>209</v>
+      </c>
+      <c r="B342" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>210</v>
+      </c>
+      <c r="B343" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>211</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>211</v>
+      </c>
+      <c r="B345" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>212</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>212</v>
+      </c>
+      <c r="B347" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>213</v>
+      </c>
+      <c r="B348" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>214</v>
+      </c>
+      <c r="B349" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>215</v>
+      </c>
+      <c r="B350" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>216</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>216</v>
+      </c>
+      <c r="B352" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>217</v>
+      </c>
+      <c r="B353" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>218</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>218</v>
+      </c>
+      <c r="B355" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>809</v>
+      </c>
+      <c r="B356" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>219</v>
+      </c>
+      <c r="B357" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>220</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>220</v>
+      </c>
+      <c r="B359" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>221</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>221</v>
+      </c>
+      <c r="B361" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>222</v>
+      </c>
+      <c r="B362" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>223</v>
+      </c>
+      <c r="B363" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>223</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>224</v>
+      </c>
+      <c r="B365" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>225</v>
+      </c>
+      <c r="B366" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>226</v>
+      </c>
+      <c r="B367" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>226</v>
+      </c>
+      <c r="B368" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>227</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>227</v>
+      </c>
+      <c r="B370" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>228</v>
+      </c>
+      <c r="B371" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>229</v>
+      </c>
+      <c r="B372" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>230</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>230</v>
+      </c>
+      <c r="B374" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>231</v>
+      </c>
+      <c r="B375" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>232</v>
+      </c>
+      <c r="B376" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>233</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>233</v>
+      </c>
+      <c r="B378" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>234</v>
+      </c>
+      <c r="B379" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>235</v>
+      </c>
+      <c r="B380" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>236</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>236</v>
+      </c>
+      <c r="B382" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>237</v>
+      </c>
+      <c r="B383" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>238</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>238</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>238</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>238</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>238</v>
+      </c>
+      <c r="B388" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>239</v>
+      </c>
+      <c r="B389" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>240</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>240</v>
+      </c>
+      <c r="B391" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>241</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>241</v>
+      </c>
+      <c r="B393" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>242</v>
+      </c>
+      <c r="B394" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>243</v>
+      </c>
+      <c r="B395" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>244</v>
+      </c>
+      <c r="B396" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>245</v>
+      </c>
+      <c r="B397" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>246</v>
+      </c>
+      <c r="B398" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>247</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>247</v>
+      </c>
+      <c r="B400" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>248</v>
+      </c>
+      <c r="B401" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>249</v>
+      </c>
+      <c r="B402" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>250</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>250</v>
+      </c>
+      <c r="B404" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>251</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>251</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>251</v>
+      </c>
+      <c r="B407" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>252</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>252</v>
+      </c>
+      <c r="B409" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>253</v>
+      </c>
+      <c r="B410" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>254</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>254</v>
+      </c>
+      <c r="B412" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>255</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>255</v>
+      </c>
+      <c r="B414" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>256</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>256</v>
+      </c>
+      <c r="B416" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>257</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>257</v>
+      </c>
+      <c r="B418" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>258</v>
+      </c>
+      <c r="B419" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>259</v>
+      </c>
+      <c r="B420" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>260</v>
+      </c>
+      <c r="B421" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>261</v>
+      </c>
+      <c r="B422" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>261</v>
+      </c>
+      <c r="B423" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>262</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>262</v>
+      </c>
+      <c r="B425" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>263</v>
+      </c>
+      <c r="B426" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>264</v>
+      </c>
+      <c r="B427" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>265</v>
+      </c>
+      <c r="B428" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>266</v>
+      </c>
+      <c r="B429" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>267</v>
+      </c>
+      <c r="B430" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>268</v>
+      </c>
+      <c r="B431" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>269</v>
+      </c>
+      <c r="B432" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>270</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>270</v>
+      </c>
+      <c r="B434" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>271</v>
+      </c>
+      <c r="B435" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>272</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>272</v>
+      </c>
+      <c r="B437" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>273</v>
+      </c>
+      <c r="B438" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>274</v>
+      </c>
+      <c r="B439" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>810</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>810</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>810</v>
+      </c>
+      <c r="B442" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>810</v>
+      </c>
+      <c r="B443" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>275</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>275</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>275</v>
+      </c>
+      <c r="B446" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>275</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>276</v>
+      </c>
+      <c r="B448" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>277</v>
+      </c>
+      <c r="B449" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>278</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>278</v>
+      </c>
+      <c r="B451" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>279</v>
+      </c>
+      <c r="B452" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>279</v>
+      </c>
+      <c r="B453" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>280</v>
+      </c>
+      <c r="B454" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>281</v>
+      </c>
+      <c r="B455" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>282</v>
+      </c>
+      <c r="B456" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>283</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>283</v>
+      </c>
+      <c r="B458" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>284</v>
+      </c>
+      <c r="B459" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>284</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>285</v>
+      </c>
+      <c r="B461" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>286</v>
+      </c>
+      <c r="B462" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>287</v>
+      </c>
+      <c r="B463" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>288</v>
+      </c>
+      <c r="B464" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>289</v>
+      </c>
+      <c r="B465" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>290</v>
+      </c>
+      <c r="B466" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>291</v>
+      </c>
+      <c r="B467" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>292</v>
+      </c>
+      <c r="B468" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>293</v>
+      </c>
+      <c r="B469" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>293</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>294</v>
+      </c>
+      <c r="B471" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>295</v>
+      </c>
+      <c r="B472" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>296</v>
+      </c>
+      <c r="B473" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>297</v>
+      </c>
+      <c r="B474" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>298</v>
+      </c>
+      <c r="B475" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>299</v>
+      </c>
+      <c r="B476" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>300</v>
+      </c>
+      <c r="B477" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>301</v>
+      </c>
+      <c r="B478" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>302</v>
+      </c>
+      <c r="B479" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>303</v>
+      </c>
+      <c r="B480" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>304</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>304</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>304</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>304</v>
+      </c>
+      <c r="B484" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>304</v>
+      </c>
+      <c r="B485" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>305</v>
+      </c>
+      <c r="B486" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>306</v>
+      </c>
+      <c r="B487" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>307</v>
+      </c>
+      <c r="B488" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>307</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>308</v>
+      </c>
+      <c r="B490" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>309</v>
+      </c>
+      <c r="B491" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>310</v>
+      </c>
+      <c r="B492" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>311</v>
+      </c>
+      <c r="B493" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>311</v>
+      </c>
+      <c r="B494" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>311</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>312</v>
+      </c>
+      <c r="B496" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>312</v>
+      </c>
+      <c r="B497" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>313</v>
+      </c>
+      <c r="B498" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>313</v>
+      </c>
+      <c r="B499" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>314</v>
+      </c>
+      <c r="B500" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>315</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>315</v>
+      </c>
+      <c r="B502" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>315</v>
+      </c>
+      <c r="B503" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>316</v>
+      </c>
+      <c r="B504" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>317</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>317</v>
+      </c>
+      <c r="B506" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>318</v>
+      </c>
+      <c r="B507" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>319</v>
+      </c>
+      <c r="B508" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>320</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>320</v>
+      </c>
+      <c r="B510" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>321</v>
+      </c>
+      <c r="B511" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>322</v>
+      </c>
+      <c r="B512" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>323</v>
+      </c>
+      <c r="B513" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>324</v>
+      </c>
+      <c r="B514" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>325</v>
+      </c>
+      <c r="B515" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>326</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>326</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>326</v>
+      </c>
+      <c r="B518" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>327</v>
+      </c>
+      <c r="B519" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>327</v>
+      </c>
+      <c r="B520" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>328</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>328</v>
+      </c>
+      <c r="B522" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>329</v>
+      </c>
+      <c r="B523" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>330</v>
+      </c>
+      <c r="B524" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>331</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>331</v>
+      </c>
+      <c r="B526" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>331</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>332</v>
+      </c>
+      <c r="B528" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>333</v>
+      </c>
+      <c r="B529" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>333</v>
+      </c>
+      <c r="B530" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>334</v>
+      </c>
+      <c r="B531" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>335</v>
+      </c>
+      <c r="B532" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>336</v>
+      </c>
+      <c r="B533" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>337</v>
+      </c>
+      <c r="B534" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>338</v>
+      </c>
+      <c r="B535" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>339</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>339</v>
+      </c>
+      <c r="B537" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>340</v>
+      </c>
+      <c r="B538" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>341</v>
+      </c>
+      <c r="B539" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>342</v>
+      </c>
+      <c r="B540" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>343</v>
+      </c>
+      <c r="B541" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>344</v>
+      </c>
+      <c r="B542" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>345</v>
+      </c>
+      <c r="B543" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>346</v>
+      </c>
+      <c r="B544" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>346</v>
+      </c>
+      <c r="B545" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>347</v>
+      </c>
+      <c r="B546" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>348</v>
+      </c>
+      <c r="B547" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>349</v>
+      </c>
+      <c r="B548" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>349</v>
+      </c>
+      <c r="B549" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>350</v>
+      </c>
+      <c r="B550" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>350</v>
+      </c>
+      <c r="B551" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>350</v>
+      </c>
+      <c r="B552" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>351</v>
+      </c>
+      <c r="B553" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>352</v>
+      </c>
+      <c r="B554" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>353</v>
+      </c>
+      <c r="B555" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/conf/crops.xlsx
+++ b/data/conf/crops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DFB986-2876-4B71-9FA8-5E633034D625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27413612-A010-4C21-8E82-28BF0E95CB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="crops_genus" sheetId="9" r:id="rId5"/>
     <sheet name="crops_taxa" sheetId="8" r:id="rId6"/>
     <sheet name="crops_common" sheetId="10" r:id="rId7"/>
+    <sheet name="new_names" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crops!$A$1:$E$356</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10772" uniqueCount="2005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10780" uniqueCount="2007">
   <si>
     <t>useable</t>
   </si>
@@ -6057,6 +6058,12 @@
   </si>
   <si>
     <t>common_name</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
 </sst>
 </file>
@@ -43259,7 +43266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CB4DAA-0A70-4877-A847-235316A08018}">
   <dimension ref="A1:B555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+    <sheetView topLeftCell="A211" workbookViewId="0">
       <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
@@ -47709,4 +47716,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5DCB83-D607-45DF-8C28-1B4E86084C1E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/conf/crops.xlsx
+++ b/data/conf/crops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27413612-A010-4C21-8E82-28BF0E95CB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC95BC4-B5A1-4F99-96FD-BB5AEEE0BB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10780" uniqueCount="2007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10792" uniqueCount="2012">
   <si>
     <t>useable</t>
   </si>
@@ -6064,6 +6064,21 @@
   </si>
   <si>
     <t>old</t>
+  </si>
+  <si>
+    <t>African rice</t>
+  </si>
+  <si>
+    <t>Asian rice</t>
+  </si>
+  <si>
+    <t>Finger Millet</t>
+  </si>
+  <si>
+    <t>Foxtail Millet</t>
+  </si>
+  <si>
+    <t>MeIilotus</t>
   </si>
 </sst>
 </file>
@@ -47720,13 +47735,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5DCB83-D607-45DF-8C28-1B4E86084C1E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -47758,6 +47777,54 @@
       </c>
       <c r="B4" t="s">
         <v>809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data/conf/crops.xlsx
+++ b/data/conf/crops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC95BC4-B5A1-4F99-96FD-BB5AEEE0BB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADDA876-5A44-487E-8243-021F1B1D89A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="4" r:id="rId1"/>
@@ -18,13 +18,18 @@
     <sheet name="fao_groups" sheetId="6" r:id="rId3"/>
     <sheet name="regions" sheetId="7" r:id="rId4"/>
     <sheet name="crops_genus" sheetId="9" r:id="rId5"/>
-    <sheet name="crops_taxa" sheetId="8" r:id="rId6"/>
-    <sheet name="crops_common" sheetId="10" r:id="rId7"/>
-    <sheet name="new_names" sheetId="11" r:id="rId8"/>
+    <sheet name="crops_genus-old" sheetId="12" r:id="rId6"/>
+    <sheet name="crops_taxa" sheetId="8" r:id="rId7"/>
+    <sheet name="crops_taxa-old" sheetId="13" r:id="rId8"/>
+    <sheet name="crops_common" sheetId="10" r:id="rId9"/>
+    <sheet name="new_names" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crops!$A$1:$E$356</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">crops_genus!$A$1:$B$356</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'crops_genus-old'!$A$1:$B$356</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">crops_taxa!$A$1:$B$551</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'crops_taxa-old'!$A$1:$B$551</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fao!$A$1:$D$1057</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10792" uniqueCount="2012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12666" uniqueCount="2042">
   <si>
     <t>useable</t>
   </si>
@@ -6079,6 +6084,96 @@
   </si>
   <si>
     <t>MeIilotus</t>
+  </si>
+  <si>
+    <t>Aegilops</t>
+  </si>
+  <si>
+    <t>Amblyopyrum</t>
+  </si>
+  <si>
+    <t>Amomum</t>
+  </si>
+  <si>
+    <t>Bambusa</t>
+  </si>
+  <si>
+    <t>Carthamus</t>
+  </si>
+  <si>
+    <t>Cenchrus</t>
+  </si>
+  <si>
+    <t>Chrysanthemum</t>
+  </si>
+  <si>
+    <t>Elletaria</t>
+  </si>
+  <si>
+    <t>Elymus</t>
+  </si>
+  <si>
+    <t>Kummerowia</t>
+  </si>
+  <si>
+    <t>Leymus</t>
+  </si>
+  <si>
+    <t>Millettia</t>
+  </si>
+  <si>
+    <t>Neustanthus</t>
+  </si>
+  <si>
+    <t>Pennisetum</t>
+  </si>
+  <si>
+    <t>Phyllostachys</t>
+  </si>
+  <si>
+    <t>Poncirus</t>
+  </si>
+  <si>
+    <t>Pongamia</t>
+  </si>
+  <si>
+    <t>Samuela</t>
+  </si>
+  <si>
+    <t>Sapium</t>
+  </si>
+  <si>
+    <t>Securigera</t>
+  </si>
+  <si>
+    <t>Simmondsia</t>
+  </si>
+  <si>
+    <t>Stillingia</t>
+  </si>
+  <si>
+    <t>Tanacetum</t>
+  </si>
+  <si>
+    <t>Thinopyrum</t>
+  </si>
+  <si>
+    <t>Triadica</t>
+  </si>
+  <si>
+    <t>Triticosecale</t>
+  </si>
+  <si>
+    <t>Urochloa</t>
+  </si>
+  <si>
+    <t>Vernicia</t>
+  </si>
+  <si>
+    <t>xTriticosecale</t>
+  </si>
+  <si>
+    <t>Yucca</t>
   </si>
 </sst>
 </file>
@@ -12351,6 +12446,106 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5DCB83-D607-45DF-8C28-1B4E86084C1E}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
@@ -35985,10 +36180,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EFBD89-F77F-47D3-B775-BA0359D7A0AB}">
-  <dimension ref="A1:B356"/>
+  <dimension ref="A1:B386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36007,6 +36202,3114 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>343</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>311</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>274</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>810</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>333</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>321</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>252</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>316</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>286</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>242</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>269</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>342</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>319</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>104</v>
+      </c>
+      <c r="B114" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>149</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>287</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>314</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>110</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>344</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>267</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>353</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>113</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>332</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>270</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>96</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>93</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>115</v>
+      </c>
+      <c r="B135" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>74</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>135</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>187</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>349</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>247</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>120</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>223</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>345</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>322</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>188</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>127</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>142</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>307</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>133</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>139</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>137</v>
+      </c>
+      <c r="B163" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>202</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>304</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>182</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>105</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>219</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>305</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>150</v>
+      </c>
+      <c r="B171" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>160</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>313</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>283</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>168</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>281</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>41</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>152</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>207</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>37</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>155</v>
+      </c>
+      <c r="B181" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>315</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>250</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>339</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>179</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>174</v>
+      </c>
+      <c r="B186" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>180</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>61</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>144</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>43</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>175</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>178</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>109</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>179</v>
+      </c>
+      <c r="B195" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>181</v>
+      </c>
+      <c r="B196" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>345</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>224</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>134</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>184</v>
+      </c>
+      <c r="B200" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>186</v>
+      </c>
+      <c r="B201" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>189</v>
+      </c>
+      <c r="B202" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>190</v>
+      </c>
+      <c r="B203" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>191</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>193</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>194</v>
+      </c>
+      <c r="B207" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>195</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>23</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>199</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>201</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>76</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>78</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>88</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>291</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>28</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>210</v>
+      </c>
+      <c r="B219" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>245</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>209</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>288</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>260</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>208</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>46</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>213</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>336</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>40</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>256</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>220</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>215</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>341</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>72</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>217</v>
+      </c>
+      <c r="B235" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>273</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>266</v>
+      </c>
+      <c r="B237" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>325</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>42</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>340</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>226</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>228</v>
+      </c>
+      <c r="B242" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>263</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>204</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>231</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>232</v>
+      </c>
+      <c r="B246" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>278</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>279</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>222</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>161</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>12</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>148</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>185</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>264</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>261</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>147</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>171</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>236</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>235</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>239</v>
+      </c>
+      <c r="B260" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>246</v>
+      </c>
+      <c r="B261" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>34</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>234</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>63</v>
+      </c>
+      <c r="B264" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>248</v>
+      </c>
+      <c r="B265" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>102</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>183</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>284</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>323</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>351</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>249</v>
+      </c>
+      <c r="B271" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>116</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>218</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>39</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>326</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>21</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>253</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>244</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>255</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>241</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>258</v>
+      </c>
+      <c r="B282" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>142</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>200</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>230</v>
+      </c>
+      <c r="B285" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>260</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>198</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>265</v>
+      </c>
+      <c r="B288" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>16</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>24</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>84</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>238</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>257</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>146</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>347</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>266</v>
+      </c>
+      <c r="B296" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>259</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>240</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>272</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>276</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>277</v>
+      </c>
+      <c r="B301" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>112</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>141</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>77</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>282</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>275</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>302</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>312</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>290</v>
+      </c>
+      <c r="B309" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>122</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>71</v>
+      </c>
+      <c r="B311" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>300</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>317</v>
+      </c>
+      <c r="B313" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>292</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>49</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>285</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>345</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>82</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>104</v>
+      </c>
+      <c r="B319" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>294</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>295</v>
+      </c>
+      <c r="B321" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>136</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>296</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>317</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>162</v>
+      </c>
+      <c r="B325" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>348</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>121</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>216</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>262</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>327</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>243</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>328</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>8</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>48</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>293</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>301</v>
+      </c>
+      <c r="B336" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>306</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>212</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>317</v>
+      </c>
+      <c r="B339" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>123</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>309</v>
+      </c>
+      <c r="B341" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>98</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>81</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>318</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>269</v>
+      </c>
+      <c r="B345" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>809</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>99</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>345</v>
+      </c>
+      <c r="B348" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>324</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>289</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>317</v>
+      </c>
+      <c r="B351" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>299</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>97</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>128</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>196</v>
+      </c>
+      <c r="B355" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>329</v>
+      </c>
+      <c r="B356" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>330</v>
+      </c>
+      <c r="B357" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>345</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>205</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>334</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>59</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>51</v>
+      </c>
+      <c r="B362" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>50</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>108</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>335</v>
+      </c>
+      <c r="B365" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>36</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>331</v>
+      </c>
+      <c r="B367" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>125</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>338</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>6</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>38</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>47</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>106</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>206</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>214</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>280</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>167</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>143</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>350</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>330</v>
+      </c>
+      <c r="B380" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>71</v>
+      </c>
+      <c r="B381" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>196</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>140</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>346</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>163</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>352</v>
+      </c>
+      <c r="B386" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0F93D-802F-45B5-8984-6223C65125AE}">
+  <dimension ref="A1:B356"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -38850,12 +42153,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F717114-0CCC-490E-8AC0-0BFB74235F4F}">
   <dimension ref="A1:B551"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43277,7 +46580,4434 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F9E944-7C78-4C07-A3E1-5150B87F04A7}">
+  <dimension ref="A1:B551"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>310</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>274</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>810</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>810</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>810</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>810</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>251</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>252</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>252</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>316</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>151</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>66</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>90</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>90</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>90</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>68</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>286</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>73</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>271</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>60</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>87</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>89</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>94</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>94</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>342</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>342</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>177</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>177</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>95</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>91</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>230</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>177</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>142</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>230</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>100</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>172</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>172</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>103</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>104</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>149</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>107</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>107</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>287</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>314</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>268</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>211</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>110</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>113</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>130</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>267</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>56</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>353</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>111</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>332</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>270</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>96</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>29</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>93</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>115</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>74</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>117</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>117</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>135</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>135</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>187</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>349</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>349</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>349</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>349</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>247</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>120</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>159</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>158</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>158</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>223</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>223</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>70</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>132</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>322</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>188</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>54</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>54</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>44</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>131</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>127</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>173</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>307</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>307</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>139</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>133</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>137</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>202</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>154</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>304</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>182</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>105</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>105</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>219</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>305</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>150</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>313</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>160</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>283</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>168</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>281</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>41</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>152</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>207</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>37</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>155</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>155</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>155</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>315</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>339</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>339</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>179</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>179</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>174</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>180</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>61</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>144</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>43</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>175</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>178</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>192</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>109</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>179</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>179</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>179</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>181</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>224</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>134</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>184</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>186</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>186</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>186</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>186</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>186</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>186</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>189</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>189</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>189</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>190</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>190</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>191</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>191</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>191</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>191</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>193</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>193</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>194</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>195</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>2</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>23</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>199</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>201</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>78</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>76</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>78</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>88</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>88</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>291</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>28</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>14</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>210</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>210</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>245</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>245</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>209</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>288</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>260</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>208</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>46</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>213</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>213</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>213</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>336</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>40</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>256</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>220</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>215</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>341</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>72</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>217</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>273</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>266</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>325</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>42</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>340</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>226</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>228</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>263</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>204</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>231</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>232</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>278</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>279</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>222</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>161</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>148</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>264</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>185</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>261</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>147</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>171</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>236</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>236</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>235</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>239</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>239</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>246</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>34</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>234</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>248</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>248</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>63</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>323</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>284</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>351</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>183</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>102</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>249</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>116</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>218</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>39</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>326</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>326</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>326</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>326</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>15</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>21</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>253</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>244</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>255</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>241</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>258</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>258</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>258</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>260</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>198</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>265</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>265</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>265</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>265</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>265</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>24</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>84</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>257</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>84</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>257</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>16</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>238</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>257</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>146</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>347</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>266</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>259</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>240</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>240</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>240</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>272</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>276</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>277</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>277</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>112</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>112</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>141</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>77</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>282</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>275</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>275</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>275</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>302</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>312</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>290</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>122</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>71</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>300</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>317</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>317</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>292</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>292</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>49</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>285</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>82</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>104</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>294</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>295</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>136</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>317</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>317</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>296</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>317</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>162</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>348</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>8</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>262</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>48</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>328</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>262</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>262</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>327</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>121</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>243</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>216</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>262</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>293</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>301</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>306</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>212</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>212</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>317</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>317</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>123</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>309</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>309</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>309</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>98</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>81</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>318</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>269</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>809</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>99</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>324</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>289</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>317</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>299</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>97</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>97</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>97</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>97</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>97</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>97</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>97</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>97</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>97</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>97</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>97</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>97</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>97</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>97</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>97</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>97</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>97</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>128</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>329</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>330</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>330</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>330</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>330</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>345</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>345</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>345</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>345</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>345</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>345</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>345</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>345</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>345</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>345</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>345</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>205</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>334</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>59</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>59</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>59</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>51</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>51</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>51</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>50</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>50</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>108</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>50</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>335</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>335</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>335</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>335</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>36</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>36</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>331</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>338</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>125</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>338</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>338</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>338</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>206</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>6</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>47</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>214</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>38</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>280</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>106</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>167</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>143</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>350</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>330</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>330</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>330</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>330</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>71</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>196</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>140</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>346</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>163</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>352</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CB4DAA-0A70-4877-A847-235316A08018}">
   <dimension ref="A1:B555"/>
   <sheetViews>
@@ -47731,104 +55461,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5DCB83-D607-45DF-8C28-1B4E86084C1E}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2006</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B4" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2008</v>
-      </c>
-      <c r="B6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2009</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2010</v>
-      </c>
-      <c r="B8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1966</v>
-      </c>
-      <c r="B10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/conf/crops.xlsx
+++ b/data/conf/crops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIAT\Code\CWR\itpgrfa_crop_indicator_code\data\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADDA876-5A44-487E-8243-021F1B1D89A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEB543A-EF3F-42DC-A199-91CE4B2894A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12666" uniqueCount="2042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12668" uniqueCount="2042">
   <si>
     <t>useable</t>
   </si>
@@ -7080,7 +7080,10 @@
   <dimension ref="A1:E356"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8421,10 +8424,10 @@
         <v>392</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>392</v>
@@ -8489,10 +8492,10 @@
         <v>392</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>392</v>
@@ -9691,10 +9694,10 @@
         <v>392</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>392</v>
@@ -12548,11 +12551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D1057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B760" sqref="B760"/>
+      <selection activeCell="B528" sqref="B528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12576,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>574</v>
       </c>
@@ -12590,7 +12592,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>811</v>
       </c>
@@ -12604,7 +12606,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>812</v>
       </c>
@@ -12618,7 +12620,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>796</v>
       </c>
@@ -12632,7 +12634,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>813</v>
       </c>
@@ -12646,7 +12648,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>354</v>
       </c>
@@ -12660,7 +12662,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>354</v>
       </c>
@@ -12674,7 +12676,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>472</v>
       </c>
@@ -12688,7 +12690,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>814</v>
       </c>
@@ -12702,7 +12704,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>815</v>
       </c>
@@ -12716,7 +12718,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>816</v>
       </c>
@@ -12730,7 +12732,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>817</v>
       </c>
@@ -12744,7 +12746,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>818</v>
       </c>
@@ -12758,7 +12760,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>819</v>
       </c>
@@ -12772,7 +12774,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>820</v>
       </c>
@@ -12786,7 +12788,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>575</v>
       </c>
@@ -12800,7 +12802,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>356</v>
       </c>
@@ -12814,7 +12816,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>356</v>
       </c>
@@ -12828,7 +12830,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>821</v>
       </c>
@@ -12842,7 +12844,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>821</v>
       </c>
@@ -12856,7 +12858,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>576</v>
       </c>
@@ -12870,7 +12872,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>357</v>
       </c>
@@ -12884,7 +12886,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>577</v>
       </c>
@@ -12898,7 +12900,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>358</v>
       </c>
@@ -12912,7 +12914,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>578</v>
       </c>
@@ -12926,7 +12928,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>579</v>
       </c>
@@ -12940,7 +12942,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>822</v>
       </c>
@@ -12954,7 +12956,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>822</v>
       </c>
@@ -12968,7 +12970,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>580</v>
       </c>
@@ -12982,7 +12984,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>823</v>
       </c>
@@ -12996,7 +12998,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>824</v>
       </c>
@@ -13010,7 +13012,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>825</v>
       </c>
@@ -13024,7 +13026,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>488</v>
       </c>
@@ -13038,7 +13040,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>826</v>
       </c>
@@ -13052,7 +13054,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>827</v>
       </c>
@@ -13066,7 +13068,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>828</v>
       </c>
@@ -13080,7 +13082,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>581</v>
       </c>
@@ -13094,7 +13096,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>582</v>
       </c>
@@ -13108,7 +13110,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>359</v>
       </c>
@@ -13122,7 +13124,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>583</v>
       </c>
@@ -13136,7 +13138,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>584</v>
       </c>
@@ -13150,7 +13152,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>829</v>
       </c>
@@ -13164,7 +13166,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>829</v>
       </c>
@@ -13178,7 +13180,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>455</v>
       </c>
@@ -13192,7 +13194,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>455</v>
       </c>
@@ -13206,7 +13208,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>830</v>
       </c>
@@ -13220,7 +13222,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>831</v>
       </c>
@@ -13234,7 +13236,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>832</v>
       </c>
@@ -13248,7 +13250,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>585</v>
       </c>
@@ -13262,7 +13264,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>586</v>
       </c>
@@ -13276,7 +13278,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>587</v>
       </c>
@@ -13290,7 +13292,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>456</v>
       </c>
@@ -13304,7 +13306,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>588</v>
       </c>
@@ -13318,7 +13320,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>589</v>
       </c>
@@ -13332,7 +13334,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>833</v>
       </c>
@@ -13346,7 +13348,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>458</v>
       </c>
@@ -13360,7 +13362,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>834</v>
       </c>
@@ -13374,7 +13376,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>590</v>
       </c>
@@ -13388,7 +13390,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>505</v>
       </c>
@@ -13402,7 +13404,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>835</v>
       </c>
@@ -13416,7 +13418,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>836</v>
       </c>
@@ -13430,7 +13432,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>837</v>
       </c>
@@ -13444,7 +13446,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>797</v>
       </c>
@@ -13458,7 +13460,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>591</v>
       </c>
@@ -13472,7 +13474,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>592</v>
       </c>
@@ -13486,7 +13488,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>593</v>
       </c>
@@ -13500,7 +13502,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>838</v>
       </c>
@@ -13514,7 +13516,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>839</v>
       </c>
@@ -13528,7 +13530,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>840</v>
       </c>
@@ -13542,7 +13544,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>841</v>
       </c>
@@ -13556,7 +13558,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>594</v>
       </c>
@@ -13570,7 +13572,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>842</v>
       </c>
@@ -13584,7 +13586,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>842</v>
       </c>
@@ -13598,7 +13600,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>843</v>
       </c>
@@ -13612,7 +13614,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>844</v>
       </c>
@@ -13626,7 +13628,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>844</v>
       </c>
@@ -13640,7 +13642,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>845</v>
       </c>
@@ -13654,7 +13656,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>846</v>
       </c>
@@ -13668,7 +13670,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>846</v>
       </c>
@@ -13682,7 +13684,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>847</v>
       </c>
@@ -13696,7 +13698,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>848</v>
       </c>
@@ -13710,7 +13712,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>849</v>
       </c>
@@ -13724,7 +13726,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>850</v>
       </c>
@@ -13738,7 +13740,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>851</v>
       </c>
@@ -13752,7 +13754,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>852</v>
       </c>
@@ -13766,7 +13768,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>853</v>
       </c>
@@ -13780,7 +13782,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>595</v>
       </c>
@@ -13794,7 +13796,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>596</v>
       </c>
@@ -13808,7 +13810,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>597</v>
       </c>
@@ -13822,7 +13824,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>598</v>
       </c>
@@ -13836,7 +13838,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>599</v>
       </c>
@@ -13850,7 +13852,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>854</v>
       </c>
@@ -13864,7 +13866,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>600</v>
       </c>
@@ -13878,7 +13880,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>601</v>
       </c>
@@ -13892,7 +13894,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>602</v>
       </c>
@@ -13906,7 +13908,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>459</v>
       </c>
@@ -13920,7 +13922,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>855</v>
       </c>
@@ -13934,7 +13936,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>856</v>
       </c>
@@ -13948,7 +13950,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>857</v>
       </c>
@@ -13962,7 +13964,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>603</v>
       </c>
@@ -13976,7 +13978,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>604</v>
       </c>
@@ -13990,7 +13992,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>605</v>
       </c>
@@ -14004,7 +14006,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>606</v>
       </c>
@@ -14018,7 +14020,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>607</v>
       </c>
@@ -14032,7 +14034,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>858</v>
       </c>
@@ -14046,7 +14048,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>859</v>
       </c>
@@ -14060,7 +14062,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>798</v>
       </c>
@@ -14074,7 +14076,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>608</v>
       </c>
@@ -14088,7 +14090,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>609</v>
       </c>
@@ -14102,7 +14104,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>860</v>
       </c>
@@ -14116,7 +14118,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>610</v>
       </c>
@@ -14130,7 +14132,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>611</v>
       </c>
@@ -14144,7 +14146,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>612</v>
       </c>
@@ -14158,7 +14160,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>613</v>
       </c>
@@ -14172,7 +14174,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>614</v>
       </c>
@@ -14186,7 +14188,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>615</v>
       </c>
@@ -14200,7 +14202,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>861</v>
       </c>
@@ -14214,7 +14216,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>616</v>
       </c>
@@ -14228,7 +14230,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>862</v>
       </c>
@@ -14242,7 +14244,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>617</v>
       </c>
@@ -14256,7 +14258,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>460</v>
       </c>
@@ -14270,7 +14272,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>618</v>
       </c>
@@ -14284,7 +14286,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>619</v>
       </c>
@@ -14298,7 +14300,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>360</v>
       </c>
@@ -14312,7 +14314,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>863</v>
       </c>
@@ -14326,7 +14328,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>620</v>
       </c>
@@ -14340,7 +14342,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>461</v>
       </c>
@@ -14354,7 +14356,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>461</v>
       </c>
@@ -14368,7 +14370,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>461</v>
       </c>
@@ -14382,7 +14384,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>361</v>
       </c>
@@ -14396,7 +14398,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>864</v>
       </c>
@@ -14410,7 +14412,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>362</v>
       </c>
@@ -14424,7 +14426,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>621</v>
       </c>
@@ -14438,7 +14440,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>865</v>
       </c>
@@ -14452,7 +14454,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>866</v>
       </c>
@@ -14466,7 +14468,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>867</v>
       </c>
@@ -14480,7 +14482,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>622</v>
       </c>
@@ -14494,7 +14496,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>623</v>
       </c>
@@ -14508,7 +14510,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>521</v>
       </c>
@@ -14522,7 +14524,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>868</v>
       </c>
@@ -14536,7 +14538,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>869</v>
       </c>
@@ -14550,7 +14552,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>870</v>
       </c>
@@ -14564,7 +14566,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>871</v>
       </c>
@@ -14578,7 +14580,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>872</v>
       </c>
@@ -14592,7 +14594,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>873</v>
       </c>
@@ -14606,7 +14608,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>874</v>
       </c>
@@ -14620,7 +14622,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>875</v>
       </c>
@@ -14634,7 +14636,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>876</v>
       </c>
@@ -14648,7 +14650,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>877</v>
       </c>
@@ -14662,7 +14664,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>878</v>
       </c>
@@ -14676,7 +14678,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>878</v>
       </c>
@@ -14690,7 +14692,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>879</v>
       </c>
@@ -14704,7 +14706,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>364</v>
       </c>
@@ -14718,7 +14720,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>364</v>
       </c>
@@ -14732,7 +14734,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>624</v>
       </c>
@@ -14746,7 +14748,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>527</v>
       </c>
@@ -14760,7 +14762,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>880</v>
       </c>
@@ -14774,7 +14776,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>881</v>
       </c>
@@ -14788,7 +14790,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>882</v>
       </c>
@@ -14802,7 +14804,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>408</v>
       </c>
@@ -14816,7 +14818,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>625</v>
       </c>
@@ -14830,7 +14832,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>626</v>
       </c>
@@ -14844,7 +14846,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>627</v>
       </c>
@@ -14858,7 +14860,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>883</v>
       </c>
@@ -14872,7 +14874,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>884</v>
       </c>
@@ -14886,7 +14888,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>885</v>
       </c>
@@ -14900,7 +14902,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>886</v>
       </c>
@@ -14914,7 +14916,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>887</v>
       </c>
@@ -14928,7 +14930,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>888</v>
       </c>
@@ -14942,7 +14944,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>889</v>
       </c>
@@ -14956,7 +14958,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>890</v>
       </c>
@@ -14970,7 +14972,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>891</v>
       </c>
@@ -14984,7 +14986,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>892</v>
       </c>
@@ -14998,7 +15000,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>893</v>
       </c>
@@ -15012,7 +15014,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>894</v>
       </c>
@@ -15026,7 +15028,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>895</v>
       </c>
@@ -15040,7 +15042,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>896</v>
       </c>
@@ -15054,7 +15056,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>897</v>
       </c>
@@ -15068,7 +15070,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>898</v>
       </c>
@@ -15082,7 +15084,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>899</v>
       </c>
@@ -15096,7 +15098,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>900</v>
       </c>
@@ -15110,7 +15112,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>901</v>
       </c>
@@ -15124,7 +15126,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>902</v>
       </c>
@@ -15138,7 +15140,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>903</v>
       </c>
@@ -15152,7 +15154,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>904</v>
       </c>
@@ -15166,7 +15168,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>905</v>
       </c>
@@ -15180,7 +15182,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>905</v>
       </c>
@@ -15194,7 +15196,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>906</v>
       </c>
@@ -15208,7 +15210,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>907</v>
       </c>
@@ -15222,7 +15224,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>907</v>
       </c>
@@ -15236,7 +15238,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>908</v>
       </c>
@@ -15250,7 +15252,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>909</v>
       </c>
@@ -15264,7 +15266,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>910</v>
       </c>
@@ -15278,7 +15280,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>911</v>
       </c>
@@ -15292,7 +15294,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>912</v>
       </c>
@@ -15306,7 +15308,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>913</v>
       </c>
@@ -15320,7 +15322,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>913</v>
       </c>
@@ -15334,7 +15336,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>914</v>
       </c>
@@ -15348,7 +15350,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>915</v>
       </c>
@@ -15362,7 +15364,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>915</v>
       </c>
@@ -15376,7 +15378,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>916</v>
       </c>
@@ -15390,7 +15392,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>917</v>
       </c>
@@ -15404,7 +15406,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>918</v>
       </c>
@@ -15418,7 +15420,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>918</v>
       </c>
@@ -15432,7 +15434,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>919</v>
       </c>
@@ -15446,7 +15448,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>919</v>
       </c>
@@ -15460,7 +15462,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>920</v>
       </c>
@@ -15474,7 +15476,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>920</v>
       </c>
@@ -15488,7 +15490,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>921</v>
       </c>
@@ -15502,7 +15504,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>921</v>
       </c>
@@ -15516,7 +15518,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>922</v>
       </c>
@@ -15530,7 +15532,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>922</v>
       </c>
@@ -15544,7 +15546,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>923</v>
       </c>
@@ -15558,7 +15560,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>924</v>
       </c>
@@ -15572,7 +15574,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>925</v>
       </c>
@@ -15586,7 +15588,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>926</v>
       </c>
@@ -15600,7 +15602,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>927</v>
       </c>
@@ -15614,7 +15616,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>927</v>
       </c>
@@ -15628,7 +15630,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>928</v>
       </c>
@@ -15642,7 +15644,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>929</v>
       </c>
@@ -15656,7 +15658,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>930</v>
       </c>
@@ -15670,7 +15672,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>931</v>
       </c>
@@ -15684,7 +15686,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>931</v>
       </c>
@@ -15698,7 +15700,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>932</v>
       </c>
@@ -15712,7 +15714,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>932</v>
       </c>
@@ -15726,7 +15728,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>933</v>
       </c>
@@ -15740,7 +15742,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>933</v>
       </c>
@@ -15754,7 +15756,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>934</v>
       </c>
@@ -15768,7 +15770,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>935</v>
       </c>
@@ -15782,7 +15784,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>936</v>
       </c>
@@ -15796,7 +15798,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>937</v>
       </c>
@@ -15810,7 +15812,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>938</v>
       </c>
@@ -15824,7 +15826,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>939</v>
       </c>
@@ -15838,7 +15840,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>940</v>
       </c>
@@ -15852,7 +15854,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>941</v>
       </c>
@@ -15866,7 +15868,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>942</v>
       </c>
@@ -15880,7 +15882,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>943</v>
       </c>
@@ -15894,7 +15896,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>944</v>
       </c>
@@ -15908,7 +15910,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>945</v>
       </c>
@@ -15922,7 +15924,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>945</v>
       </c>
@@ -15936,7 +15938,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>946</v>
       </c>
@@ -15950,7 +15952,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>947</v>
       </c>
@@ -15964,7 +15966,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>947</v>
       </c>
@@ -15978,7 +15980,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>365</v>
       </c>
@@ -15992,7 +15994,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>628</v>
       </c>
@@ -16006,7 +16008,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>629</v>
       </c>
@@ -16020,7 +16022,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>366</v>
       </c>
@@ -16034,7 +16036,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>366</v>
       </c>
@@ -16048,7 +16050,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>948</v>
       </c>
@@ -16062,7 +16064,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>949</v>
       </c>
@@ -16076,7 +16078,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>949</v>
       </c>
@@ -16090,7 +16092,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>949</v>
       </c>
@@ -16104,7 +16106,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>950</v>
       </c>
@@ -16118,7 +16120,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>951</v>
       </c>
@@ -16132,7 +16134,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>952</v>
       </c>
@@ -16146,7 +16148,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>799</v>
       </c>
@@ -16160,7 +16162,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>953</v>
       </c>
@@ -16174,7 +16176,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>954</v>
       </c>
@@ -16188,7 +16190,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>955</v>
       </c>
@@ -16202,7 +16204,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>956</v>
       </c>
@@ -16216,7 +16218,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>412</v>
       </c>
@@ -16230,7 +16232,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>630</v>
       </c>
@@ -16244,7 +16246,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>957</v>
       </c>
@@ -16258,7 +16260,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>958</v>
       </c>
@@ -16272,7 +16274,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>959</v>
       </c>
@@ -16286,7 +16288,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>960</v>
       </c>
@@ -16300,7 +16302,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>961</v>
       </c>
@@ -16314,7 +16316,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>962</v>
       </c>
@@ -16328,7 +16330,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>963</v>
       </c>
@@ -16342,7 +16344,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>964</v>
       </c>
@@ -16356,7 +16358,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>965</v>
       </c>
@@ -16370,7 +16372,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>966</v>
       </c>
@@ -16384,7 +16386,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>631</v>
       </c>
@@ -16398,7 +16400,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>632</v>
       </c>
@@ -16412,7 +16414,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>633</v>
       </c>
@@ -16426,7 +16428,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>367</v>
       </c>
@@ -16440,7 +16442,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>367</v>
       </c>
@@ -16454,7 +16456,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>368</v>
       </c>
@@ -16468,7 +16470,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>462</v>
       </c>
@@ -16482,7 +16484,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>463</v>
       </c>
@@ -16496,7 +16498,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>463</v>
       </c>
@@ -16510,7 +16512,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>967</v>
       </c>
@@ -16524,7 +16526,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>634</v>
       </c>
@@ -16538,7 +16540,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>635</v>
       </c>
@@ -16552,7 +16554,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>636</v>
       </c>
@@ -16566,7 +16568,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>740</v>
       </c>
@@ -16580,7 +16582,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>741</v>
       </c>
@@ -16594,7 +16596,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>968</v>
       </c>
@@ -16608,7 +16610,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>969</v>
       </c>
@@ -16622,7 +16624,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>970</v>
       </c>
@@ -16636,7 +16638,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>637</v>
       </c>
@@ -16650,7 +16652,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>971</v>
       </c>
@@ -16664,7 +16666,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>638</v>
       </c>
@@ -16678,7 +16680,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>972</v>
       </c>
@@ -16692,7 +16694,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>972</v>
       </c>
@@ -16706,7 +16708,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>973</v>
       </c>
@@ -16720,7 +16722,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>974</v>
       </c>
@@ -16734,7 +16736,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>976</v>
       </c>
@@ -16748,7 +16750,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>976</v>
       </c>
@@ -16762,7 +16764,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>369</v>
       </c>
@@ -16776,7 +16778,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>757</v>
       </c>
@@ -16790,7 +16792,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>369</v>
       </c>
@@ -16804,7 +16806,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>977</v>
       </c>
@@ -16818,7 +16820,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>464</v>
       </c>
@@ -16832,7 +16834,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>370</v>
       </c>
@@ -16846,7 +16848,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>428</v>
       </c>
@@ -16860,7 +16862,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>427</v>
       </c>
@@ -16874,7 +16876,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>559</v>
       </c>
@@ -16888,7 +16890,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>639</v>
       </c>
@@ -16902,7 +16904,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>978</v>
       </c>
@@ -16916,7 +16918,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>979</v>
       </c>
@@ -16930,7 +16932,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>980</v>
       </c>
@@ -16944,7 +16946,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>981</v>
       </c>
@@ -16958,7 +16960,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>465</v>
       </c>
@@ -16972,7 +16974,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>982</v>
       </c>
@@ -16986,7 +16988,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>982</v>
       </c>
@@ -17000,7 +17002,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>372</v>
       </c>
@@ -17014,7 +17016,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>983</v>
       </c>
@@ -17028,7 +17030,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>984</v>
       </c>
@@ -17042,7 +17044,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>984</v>
       </c>
@@ -17056,7 +17058,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>466</v>
       </c>
@@ -17070,7 +17072,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>466</v>
       </c>
@@ -17084,7 +17086,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>985</v>
       </c>
@@ -17098,7 +17100,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>986</v>
       </c>
@@ -17112,7 +17114,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>986</v>
       </c>
@@ -17126,7 +17128,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>987</v>
       </c>
@@ -17140,7 +17142,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>988</v>
       </c>
@@ -17154,7 +17156,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>989</v>
       </c>
@@ -17168,7 +17170,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>990</v>
       </c>
@@ -17182,7 +17184,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>991</v>
       </c>
@@ -17196,7 +17198,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>992</v>
       </c>
@@ -17210,7 +17212,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>373</v>
       </c>
@@ -17224,7 +17226,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>374</v>
       </c>
@@ -17238,7 +17240,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>640</v>
       </c>
@@ -17252,7 +17254,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>375</v>
       </c>
@@ -17266,7 +17268,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>641</v>
       </c>
@@ -17280,7 +17282,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>377</v>
       </c>
@@ -17294,7 +17296,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>642</v>
       </c>
@@ -17308,7 +17310,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>993</v>
       </c>
@@ -17322,7 +17324,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>993</v>
       </c>
@@ -17336,7 +17338,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>993</v>
       </c>
@@ -17350,7 +17352,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>994</v>
       </c>
@@ -17364,7 +17366,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>378</v>
       </c>
@@ -17378,7 +17380,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>378</v>
       </c>
@@ -17392,7 +17394,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>643</v>
       </c>
@@ -17406,7 +17408,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>644</v>
       </c>
@@ -17420,7 +17422,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>645</v>
       </c>
@@ -17434,7 +17436,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>800</v>
       </c>
@@ -17448,7 +17450,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>379</v>
       </c>
@@ -17462,7 +17464,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>380</v>
       </c>
@@ -17476,7 +17478,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>646</v>
       </c>
@@ -17490,7 +17492,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>647</v>
       </c>
@@ -17504,7 +17506,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>648</v>
       </c>
@@ -17518,7 +17520,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>995</v>
       </c>
@@ -17532,7 +17534,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>467</v>
       </c>
@@ -17546,7 +17548,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>996</v>
       </c>
@@ -17560,7 +17562,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>381</v>
       </c>
@@ -17574,7 +17576,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>649</v>
       </c>
@@ -17588,7 +17590,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>382</v>
       </c>
@@ -17602,7 +17604,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>382</v>
       </c>
@@ -17616,7 +17618,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>801</v>
       </c>
@@ -17630,7 +17632,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>650</v>
       </c>
@@ -17644,7 +17646,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>468</v>
       </c>
@@ -17658,7 +17660,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>651</v>
       </c>
@@ -17672,7 +17674,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>652</v>
       </c>
@@ -17686,7 +17688,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>653</v>
       </c>
@@ -17700,7 +17702,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>654</v>
       </c>
@@ -17714,7 +17716,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>655</v>
       </c>
@@ -17728,7 +17730,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>656</v>
       </c>
@@ -17742,7 +17744,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>469</v>
       </c>
@@ -17756,7 +17758,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>469</v>
       </c>
@@ -17770,7 +17772,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>657</v>
       </c>
@@ -17784,7 +17786,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>658</v>
       </c>
@@ -17798,7 +17800,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>659</v>
       </c>
@@ -17812,7 +17814,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>383</v>
       </c>
@@ -17826,7 +17828,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>660</v>
       </c>
@@ -17840,7 +17842,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>661</v>
       </c>
@@ -17854,7 +17856,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>662</v>
       </c>
@@ -17868,7 +17870,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>571</v>
       </c>
@@ -17882,7 +17884,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>663</v>
       </c>
@@ -17896,7 +17898,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>664</v>
       </c>
@@ -17910,7 +17912,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>997</v>
       </c>
@@ -17924,7 +17926,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>998</v>
       </c>
@@ -17938,7 +17940,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>999</v>
       </c>
@@ -17952,7 +17954,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1000</v>
       </c>
@@ -17966,7 +17968,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1000</v>
       </c>
@@ -17980,7 +17982,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1001</v>
       </c>
@@ -17994,7 +17996,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1002</v>
       </c>
@@ -18008,7 +18010,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1003</v>
       </c>
@@ -18022,7 +18024,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>470</v>
       </c>
@@ -18036,7 +18038,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>470</v>
       </c>
@@ -18050,7 +18052,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>470</v>
       </c>
@@ -18064,7 +18066,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>471</v>
       </c>
@@ -18078,7 +18080,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>471</v>
       </c>
@@ -18092,7 +18094,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>665</v>
       </c>
@@ -18106,7 +18108,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>472</v>
       </c>
@@ -18120,7 +18122,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>666</v>
       </c>
@@ -18134,7 +18136,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>472</v>
       </c>
@@ -18148,7 +18150,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>473</v>
       </c>
@@ -18162,7 +18164,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>473</v>
       </c>
@@ -18176,7 +18178,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>473</v>
       </c>
@@ -18190,7 +18192,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>384</v>
       </c>
@@ -18204,7 +18206,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>385</v>
       </c>
@@ -18218,7 +18220,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>385</v>
       </c>
@@ -18232,7 +18234,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1004</v>
       </c>
@@ -18246,7 +18248,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1005</v>
       </c>
@@ -18260,7 +18262,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>385</v>
       </c>
@@ -18274,7 +18276,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>474</v>
       </c>
@@ -18288,7 +18290,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>474</v>
       </c>
@@ -18302,7 +18304,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>667</v>
       </c>
@@ -18316,7 +18318,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>474</v>
       </c>
@@ -18330,7 +18332,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>25</v>
       </c>
@@ -18344,7 +18346,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>25</v>
       </c>
@@ -18358,7 +18360,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>25</v>
       </c>
@@ -18372,7 +18374,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>29</v>
       </c>
@@ -18386,7 +18388,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>29</v>
       </c>
@@ -18400,7 +18402,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>29</v>
       </c>
@@ -18414,7 +18416,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>30</v>
       </c>
@@ -18428,7 +18430,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>30</v>
       </c>
@@ -18442,7 +18444,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -18456,7 +18458,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>475</v>
       </c>
@@ -18470,7 +18472,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>475</v>
       </c>
@@ -18484,7 +18486,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>475</v>
       </c>
@@ -18498,7 +18500,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>476</v>
       </c>
@@ -18512,7 +18514,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>476</v>
       </c>
@@ -18526,7 +18528,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>476</v>
       </c>
@@ -18540,7 +18542,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>40</v>
       </c>
@@ -18554,7 +18556,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>40</v>
       </c>
@@ -18568,7 +18570,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>40</v>
       </c>
@@ -18582,7 +18584,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>40</v>
       </c>
@@ -18596,7 +18598,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>387</v>
       </c>
@@ -18610,7 +18612,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>41</v>
       </c>
@@ -18624,7 +18626,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>41</v>
       </c>
@@ -18638,7 +18640,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>668</v>
       </c>
@@ -18652,7 +18654,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>669</v>
       </c>
@@ -18666,7 +18668,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>41</v>
       </c>
@@ -18680,7 +18682,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>477</v>
       </c>
@@ -18694,7 +18696,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>477</v>
       </c>
@@ -18708,7 +18710,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>388</v>
       </c>
@@ -18722,7 +18724,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>478</v>
       </c>
@@ -18736,7 +18738,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>479</v>
       </c>
@@ -18750,7 +18752,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>480</v>
       </c>
@@ -18764,7 +18766,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>478</v>
       </c>
@@ -18778,7 +18780,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>479</v>
       </c>
@@ -18792,7 +18794,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>478</v>
       </c>
@@ -18806,7 +18808,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>479</v>
       </c>
@@ -18820,7 +18822,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>480</v>
       </c>
@@ -18834,7 +18836,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>670</v>
       </c>
@@ -18848,7 +18850,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>481</v>
       </c>
@@ -18862,7 +18864,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>481</v>
       </c>
@@ -18876,7 +18878,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>483</v>
       </c>
@@ -18890,7 +18892,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>483</v>
       </c>
@@ -18904,7 +18906,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>483</v>
       </c>
@@ -18918,7 +18920,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>484</v>
       </c>
@@ -18932,7 +18934,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>671</v>
       </c>
@@ -18946,7 +18948,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>484</v>
       </c>
@@ -18960,7 +18962,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>54</v>
       </c>
@@ -18974,7 +18976,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>672</v>
       </c>
@@ -18988,7 +18990,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>54</v>
       </c>
@@ -19002,7 +19004,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>54</v>
       </c>
@@ -19016,7 +19018,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>58</v>
       </c>
@@ -19030,7 +19032,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>486</v>
       </c>
@@ -19044,7 +19046,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>58</v>
       </c>
@@ -19058,7 +19060,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>486</v>
       </c>
@@ -19072,7 +19074,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>58</v>
       </c>
@@ -19086,7 +19088,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>486</v>
       </c>
@@ -19100,7 +19102,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>63</v>
       </c>
@@ -19114,7 +19116,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>63</v>
       </c>
@@ -19128,7 +19130,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>63</v>
       </c>
@@ -19142,7 +19144,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>73</v>
       </c>
@@ -19156,7 +19158,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>73</v>
       </c>
@@ -19170,7 +19172,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>487</v>
       </c>
@@ -19184,7 +19186,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>487</v>
       </c>
@@ -19198,7 +19200,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>487</v>
       </c>
@@ -19212,7 +19214,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>488</v>
       </c>
@@ -19226,7 +19228,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>490</v>
       </c>
@@ -19240,7 +19242,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>673</v>
       </c>
@@ -19254,7 +19256,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>490</v>
       </c>
@@ -19268,7 +19270,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>488</v>
       </c>
@@ -19282,7 +19284,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>490</v>
       </c>
@@ -19296,7 +19298,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>389</v>
       </c>
@@ -19310,7 +19312,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>76</v>
       </c>
@@ -19324,7 +19326,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>491</v>
       </c>
@@ -19338,7 +19340,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>76</v>
       </c>
@@ -19352,7 +19354,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>674</v>
       </c>
@@ -19366,7 +19368,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>675</v>
       </c>
@@ -19380,7 +19382,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>1006</v>
       </c>
@@ -19394,7 +19396,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>676</v>
       </c>
@@ -19408,7 +19410,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>76</v>
       </c>
@@ -19422,7 +19424,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>492</v>
       </c>
@@ -19436,7 +19438,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>677</v>
       </c>
@@ -19450,7 +19452,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -19464,7 +19466,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>1007</v>
       </c>
@@ -19478,7 +19480,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>493</v>
       </c>
@@ -19492,7 +19494,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>1007</v>
       </c>
@@ -19506,7 +19508,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>493</v>
       </c>
@@ -19520,7 +19522,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>390</v>
       </c>
@@ -19534,7 +19536,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>84</v>
       </c>
@@ -19548,7 +19550,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>494</v>
       </c>
@@ -19562,7 +19564,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>84</v>
       </c>
@@ -19576,7 +19578,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>494</v>
       </c>
@@ -19590,7 +19592,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>84</v>
       </c>
@@ -19604,7 +19606,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>494</v>
       </c>
@@ -19618,7 +19620,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>495</v>
       </c>
@@ -19632,7 +19634,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>495</v>
       </c>
@@ -19646,7 +19648,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>495</v>
       </c>
@@ -19660,7 +19662,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>496</v>
       </c>
@@ -19674,7 +19676,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>496</v>
       </c>
@@ -19688,7 +19690,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>496</v>
       </c>
@@ -19702,7 +19704,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>391</v>
       </c>
@@ -19716,7 +19718,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>497</v>
       </c>
@@ -19730,7 +19732,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>498</v>
       </c>
@@ -19744,7 +19746,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>497</v>
       </c>
@@ -19758,7 +19760,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>498</v>
       </c>
@@ -19772,7 +19774,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>497</v>
       </c>
@@ -19786,7 +19788,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>498</v>
       </c>
@@ -19800,7 +19802,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>499</v>
       </c>
@@ -19814,7 +19816,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1008</v>
       </c>
@@ -19828,7 +19830,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>499</v>
       </c>
@@ -19842,7 +19844,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1008</v>
       </c>
@@ -19856,7 +19858,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>499</v>
       </c>
@@ -19870,7 +19872,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1008</v>
       </c>
@@ -19884,7 +19886,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>678</v>
       </c>
@@ -19898,7 +19900,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>392</v>
       </c>
@@ -19912,12 +19914,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>500</v>
       </c>
       <c r="B526" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
       <c r="C526" t="s">
         <v>805</v>
@@ -19926,7 +19928,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>679</v>
       </c>
@@ -19940,12 +19942,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>500</v>
       </c>
       <c r="B528" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
       <c r="C528" t="s">
         <v>807</v>
@@ -19954,7 +19956,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>680</v>
       </c>
@@ -19968,7 +19970,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>98</v>
       </c>
@@ -19982,7 +19984,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>98</v>
       </c>
@@ -19996,7 +19998,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>98</v>
       </c>
@@ -20010,7 +20012,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>98</v>
       </c>
@@ -20024,7 +20026,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>393</v>
       </c>
@@ -20038,7 +20040,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>501</v>
       </c>
@@ -20052,7 +20054,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>682</v>
       </c>
@@ -20066,7 +20068,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>501</v>
       </c>
@@ -20080,7 +20082,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>683</v>
       </c>
@@ -20094,7 +20096,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>684</v>
       </c>
@@ -20108,7 +20110,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>685</v>
       </c>
@@ -20122,7 +20124,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>501</v>
       </c>
@@ -20136,7 +20138,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>394</v>
       </c>
@@ -20150,7 +20152,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>396</v>
       </c>
@@ -20164,7 +20166,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>100</v>
       </c>
@@ -20178,7 +20180,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>502</v>
       </c>
@@ -20192,7 +20194,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>686</v>
       </c>
@@ -20206,7 +20208,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>100</v>
       </c>
@@ -20220,7 +20222,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>687</v>
       </c>
@@ -20234,7 +20236,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>502</v>
       </c>
@@ -20248,7 +20250,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>688</v>
       </c>
@@ -20262,7 +20264,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>689</v>
       </c>
@@ -20276,7 +20278,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>100</v>
       </c>
@@ -20290,7 +20292,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>397</v>
       </c>
@@ -20304,7 +20306,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>503</v>
       </c>
@@ -20318,7 +20320,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>690</v>
       </c>
@@ -20332,7 +20334,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>691</v>
       </c>
@@ -20346,7 +20348,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>503</v>
       </c>
@@ -20360,7 +20362,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>692</v>
       </c>
@@ -20374,7 +20376,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>693</v>
       </c>
@@ -20388,7 +20390,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>694</v>
       </c>
@@ -20402,7 +20404,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>503</v>
       </c>
@@ -20416,7 +20418,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>398</v>
       </c>
@@ -20430,7 +20432,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>504</v>
       </c>
@@ -20444,7 +20446,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>505</v>
       </c>
@@ -20458,7 +20460,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>506</v>
       </c>
@@ -20472,7 +20474,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>695</v>
       </c>
@@ -20486,7 +20488,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>504</v>
       </c>
@@ -20500,7 +20502,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>696</v>
       </c>
@@ -20514,7 +20516,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>697</v>
       </c>
@@ -20528,7 +20530,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>698</v>
       </c>
@@ -20542,7 +20544,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>505</v>
       </c>
@@ -20556,7 +20558,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>699</v>
       </c>
@@ -20570,7 +20572,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>504</v>
       </c>
@@ -20584,7 +20586,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>505</v>
       </c>
@@ -20598,7 +20600,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>506</v>
       </c>
@@ -20612,7 +20614,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>507</v>
       </c>
@@ -20626,7 +20628,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>507</v>
       </c>
@@ -20640,7 +20642,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>108</v>
       </c>
@@ -20654,7 +20656,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>108</v>
       </c>
@@ -20668,7 +20670,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>108</v>
       </c>
@@ -20682,7 +20684,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>110</v>
       </c>
@@ -20696,7 +20698,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>110</v>
       </c>
@@ -20710,7 +20712,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>110</v>
       </c>
@@ -20724,7 +20726,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>112</v>
       </c>
@@ -20738,7 +20740,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>112</v>
       </c>
@@ -20752,7 +20754,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>112</v>
       </c>
@@ -20766,7 +20768,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>116</v>
       </c>
@@ -20780,7 +20782,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>116</v>
       </c>
@@ -20794,7 +20796,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>116</v>
       </c>
@@ -20808,7 +20810,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>116</v>
       </c>
@@ -20822,7 +20824,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>508</v>
       </c>
@@ -20836,7 +20838,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>508</v>
       </c>
@@ -20850,7 +20852,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>508</v>
       </c>
@@ -20864,7 +20866,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>510</v>
       </c>
@@ -20878,7 +20880,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>510</v>
       </c>
@@ -20892,7 +20894,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>510</v>
       </c>
@@ -20906,7 +20908,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>511</v>
       </c>
@@ -20920,7 +20922,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>511</v>
       </c>
@@ -20934,7 +20936,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>511</v>
       </c>
@@ -20948,7 +20950,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>131</v>
       </c>
@@ -20962,7 +20964,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>131</v>
       </c>
@@ -20976,7 +20978,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>700</v>
       </c>
@@ -20990,7 +20992,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>131</v>
       </c>
@@ -21004,7 +21006,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>512</v>
       </c>
@@ -21018,7 +21020,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>513</v>
       </c>
@@ -21032,7 +21034,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>701</v>
       </c>
@@ -21046,7 +21048,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>702</v>
       </c>
@@ -21060,7 +21062,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>512</v>
       </c>
@@ -21074,7 +21076,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>703</v>
       </c>
@@ -21088,7 +21090,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>704</v>
       </c>
@@ -21102,7 +21104,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>513</v>
       </c>
@@ -21116,7 +21118,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>705</v>
       </c>
@@ -21130,7 +21132,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>512</v>
       </c>
@@ -21144,7 +21146,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>513</v>
       </c>
@@ -21158,7 +21160,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>135</v>
       </c>
@@ -21172,7 +21174,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>706</v>
       </c>
@@ -21186,7 +21188,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>707</v>
       </c>
@@ -21200,7 +21202,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>135</v>
       </c>
@@ -21214,7 +21216,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>135</v>
       </c>
@@ -21228,7 +21230,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>708</v>
       </c>
@@ -21242,7 +21244,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>514</v>
       </c>
@@ -21256,7 +21258,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>514</v>
       </c>
@@ -21270,7 +21272,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>514</v>
       </c>
@@ -21284,7 +21286,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>515</v>
       </c>
@@ -21298,7 +21300,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>515</v>
       </c>
@@ -21312,7 +21314,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>516</v>
       </c>
@@ -21326,7 +21328,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>516</v>
       </c>
@@ -21340,7 +21342,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>517</v>
       </c>
@@ -21354,7 +21356,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>517</v>
       </c>
@@ -21368,7 +21370,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>517</v>
       </c>
@@ -21382,7 +21384,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>399</v>
       </c>
@@ -21396,7 +21398,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>138</v>
       </c>
@@ -21410,7 +21412,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>138</v>
       </c>
@@ -21424,7 +21426,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>138</v>
       </c>
@@ -21438,7 +21440,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>140</v>
       </c>
@@ -21452,7 +21454,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>140</v>
       </c>
@@ -21466,7 +21468,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>140</v>
       </c>
@@ -21480,7 +21482,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>141</v>
       </c>
@@ -21494,7 +21496,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>141</v>
       </c>
@@ -21508,7 +21510,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>141</v>
       </c>
@@ -21522,7 +21524,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>400</v>
       </c>
@@ -21536,7 +21538,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>518</v>
       </c>
@@ -21550,7 +21552,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>518</v>
       </c>
@@ -21564,7 +21566,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>709</v>
       </c>
@@ -21578,7 +21580,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>710</v>
       </c>
@@ -21592,7 +21594,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>518</v>
       </c>
@@ -21606,7 +21608,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>402</v>
       </c>
@@ -21620,7 +21622,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>403</v>
       </c>
@@ -21634,7 +21636,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>143</v>
       </c>
@@ -21648,7 +21650,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>143</v>
       </c>
@@ -21662,7 +21664,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>711</v>
       </c>
@@ -21676,7 +21678,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>712</v>
       </c>
@@ -21690,7 +21692,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>403</v>
       </c>
@@ -21704,7 +21706,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>713</v>
       </c>
@@ -21718,7 +21720,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>143</v>
       </c>
@@ -21732,7 +21734,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>404</v>
       </c>
@@ -21746,7 +21748,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>405</v>
       </c>
@@ -21760,7 +21762,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>145</v>
       </c>
@@ -21774,7 +21776,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>519</v>
       </c>
@@ -21788,7 +21790,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>714</v>
       </c>
@@ -21802,7 +21804,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>715</v>
       </c>
@@ -21816,7 +21818,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>716</v>
       </c>
@@ -21830,7 +21832,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>717</v>
       </c>
@@ -21844,7 +21846,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>519</v>
       </c>
@@ -21858,7 +21860,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>520</v>
       </c>
@@ -21872,7 +21874,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>520</v>
       </c>
@@ -21886,7 +21888,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>521</v>
       </c>
@@ -21900,7 +21902,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>718</v>
       </c>
@@ -21914,7 +21916,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>521</v>
       </c>
@@ -21928,7 +21930,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>522</v>
       </c>
@@ -21942,7 +21944,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>523</v>
       </c>
@@ -21956,7 +21958,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>719</v>
       </c>
@@ -21970,7 +21972,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>522</v>
       </c>
@@ -21984,7 +21986,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>523</v>
       </c>
@@ -21998,7 +22000,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>152</v>
       </c>
@@ -22012,7 +22014,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>152</v>
       </c>
@@ -22026,7 +22028,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>152</v>
       </c>
@@ -22040,7 +22042,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>524</v>
       </c>
@@ -22054,7 +22056,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>164</v>
       </c>
@@ -22068,7 +22070,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>164</v>
       </c>
@@ -22082,7 +22084,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>720</v>
       </c>
@@ -22096,7 +22098,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>164</v>
       </c>
@@ -22110,7 +22112,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>525</v>
       </c>
@@ -22124,7 +22126,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>526</v>
       </c>
@@ -22138,7 +22140,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>527</v>
       </c>
@@ -22152,7 +22154,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>721</v>
       </c>
@@ -22166,7 +22168,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>525</v>
       </c>
@@ -22180,7 +22182,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>722</v>
       </c>
@@ -22194,7 +22196,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>723</v>
       </c>
@@ -22208,7 +22210,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>526</v>
       </c>
@@ -22222,7 +22224,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>527</v>
       </c>
@@ -22236,7 +22238,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>528</v>
       </c>
@@ -22250,7 +22252,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>724</v>
       </c>
@@ -22264,7 +22266,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>528</v>
       </c>
@@ -22278,7 +22280,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>528</v>
       </c>
@@ -22292,7 +22294,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>169</v>
       </c>
@@ -22306,7 +22308,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>169</v>
       </c>
@@ -22320,7 +22322,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>169</v>
       </c>
@@ -22334,7 +22336,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>172</v>
       </c>
@@ -22348,7 +22350,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>172</v>
       </c>
@@ -22362,7 +22364,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>172</v>
       </c>
@@ -22376,7 +22378,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>529</v>
       </c>
@@ -22390,7 +22392,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>529</v>
       </c>
@@ -22404,7 +22406,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>529</v>
       </c>
@@ -22418,7 +22420,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>406</v>
       </c>
@@ -22432,7 +22434,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>177</v>
       </c>
@@ -22446,7 +22448,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>725</v>
       </c>
@@ -22460,7 +22462,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1009</v>
       </c>
@@ -22474,7 +22476,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>177</v>
       </c>
@@ -22488,7 +22490,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>177</v>
       </c>
@@ -22502,7 +22504,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>178</v>
       </c>
@@ -22516,7 +22518,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>178</v>
       </c>
@@ -22530,7 +22532,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>178</v>
       </c>
@@ -22544,7 +22546,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>530</v>
       </c>
@@ -22558,7 +22560,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>531</v>
       </c>
@@ -22572,7 +22574,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>531</v>
       </c>
@@ -22586,7 +22588,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>530</v>
       </c>
@@ -22600,7 +22602,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>531</v>
       </c>
@@ -22614,7 +22616,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>191</v>
       </c>
@@ -22628,7 +22630,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>191</v>
       </c>
@@ -22642,7 +22644,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>407</v>
       </c>
@@ -22656,7 +22658,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>196</v>
       </c>
@@ -22670,7 +22672,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>532</v>
       </c>
@@ -22684,7 +22686,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>726</v>
       </c>
@@ -22698,7 +22700,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>727</v>
       </c>
@@ -22712,7 +22714,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>728</v>
       </c>
@@ -22726,7 +22728,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>729</v>
       </c>
@@ -22740,7 +22742,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>196</v>
       </c>
@@ -22754,7 +22756,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>532</v>
       </c>
@@ -22768,7 +22770,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>730</v>
       </c>
@@ -22782,7 +22784,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>731</v>
       </c>
@@ -22796,7 +22798,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>732</v>
       </c>
@@ -22810,7 +22812,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>733</v>
       </c>
@@ -22824,7 +22826,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>196</v>
       </c>
@@ -22838,7 +22840,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>532</v>
       </c>
@@ -22852,7 +22854,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>533</v>
       </c>
@@ -22866,7 +22868,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>533</v>
       </c>
@@ -22880,7 +22882,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>533</v>
       </c>
@@ -22894,7 +22896,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>734</v>
       </c>
@@ -22908,7 +22910,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>534</v>
       </c>
@@ -22922,7 +22924,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>534</v>
       </c>
@@ -22936,7 +22938,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>735</v>
       </c>
@@ -22950,7 +22952,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>534</v>
       </c>
@@ -22964,7 +22966,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>535</v>
       </c>
@@ -22978,7 +22980,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>536</v>
       </c>
@@ -22992,7 +22994,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>535</v>
       </c>
@@ -23006,7 +23008,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>535</v>
       </c>
@@ -23020,7 +23022,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>536</v>
       </c>
@@ -23034,7 +23036,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>409</v>
       </c>
@@ -23048,7 +23050,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>410</v>
       </c>
@@ -23062,7 +23064,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>736</v>
       </c>
@@ -23076,7 +23078,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>410</v>
       </c>
@@ -23090,7 +23092,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>410</v>
       </c>
@@ -23104,7 +23106,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>537</v>
       </c>
@@ -23118,7 +23120,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>537</v>
       </c>
@@ -23132,7 +23134,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>537</v>
       </c>
@@ -23146,7 +23148,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>411</v>
       </c>
@@ -23244,7 +23246,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>221</v>
       </c>
@@ -23258,7 +23260,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>221</v>
       </c>
@@ -23272,7 +23274,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>221</v>
       </c>
@@ -23286,7 +23288,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>737</v>
       </c>
@@ -23300,7 +23302,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>221</v>
       </c>
@@ -23314,7 +23316,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>541</v>
       </c>
@@ -23328,7 +23330,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="770" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>413</v>
       </c>
@@ -23342,7 +23344,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>414</v>
       </c>
@@ -23356,7 +23358,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>539</v>
       </c>
@@ -23370,7 +23372,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>540</v>
       </c>
@@ -23384,7 +23386,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>541</v>
       </c>
@@ -23398,7 +23400,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>738</v>
       </c>
@@ -23412,7 +23414,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>540</v>
       </c>
@@ -23426,7 +23428,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>739</v>
       </c>
@@ -23440,7 +23442,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>539</v>
       </c>
@@ -23454,7 +23456,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>540</v>
       </c>
@@ -23468,7 +23470,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>541</v>
       </c>
@@ -23482,7 +23484,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>415</v>
       </c>
@@ -23496,7 +23498,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>542</v>
       </c>
@@ -23510,7 +23512,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>542</v>
       </c>
@@ -23524,7 +23526,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>542</v>
       </c>
@@ -23538,7 +23540,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>225</v>
       </c>
@@ -23552,7 +23554,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>225</v>
       </c>
@@ -23566,7 +23568,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>416</v>
       </c>
@@ -23580,7 +23582,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>418</v>
       </c>
@@ -23594,7 +23596,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>226</v>
       </c>
@@ -23608,7 +23610,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>742</v>
       </c>
@@ -23622,7 +23624,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>226</v>
       </c>
@@ -23636,7 +23638,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>743</v>
       </c>
@@ -23650,7 +23652,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>226</v>
       </c>
@@ -23664,7 +23666,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>227</v>
       </c>
@@ -23678,7 +23680,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>543</v>
       </c>
@@ -23692,7 +23694,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>544</v>
       </c>
@@ -23706,7 +23708,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>227</v>
       </c>
@@ -23720,7 +23722,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>543</v>
       </c>
@@ -23734,7 +23736,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>544</v>
       </c>
@@ -23748,7 +23750,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>543</v>
       </c>
@@ -23762,7 +23764,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>544</v>
       </c>
@@ -23776,7 +23778,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>419</v>
       </c>
@@ -23790,7 +23792,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>230</v>
       </c>
@@ -23804,7 +23806,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>545</v>
       </c>
@@ -23818,7 +23820,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>744</v>
       </c>
@@ -23832,7 +23834,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>745</v>
       </c>
@@ -23846,7 +23848,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>230</v>
       </c>
@@ -23860,7 +23862,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>746</v>
       </c>
@@ -23874,7 +23876,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>545</v>
       </c>
@@ -23888,7 +23890,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>230</v>
       </c>
@@ -23902,7 +23904,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="811" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>545</v>
       </c>
@@ -23916,7 +23918,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>233</v>
       </c>
@@ -23930,7 +23932,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="813" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>233</v>
       </c>
@@ -23944,7 +23946,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>233</v>
       </c>
@@ -23958,7 +23960,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>238</v>
       </c>
@@ -23972,7 +23974,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="816" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>238</v>
       </c>
@@ -23986,7 +23988,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>238</v>
       </c>
@@ -24000,7 +24002,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>240</v>
       </c>
@@ -24014,7 +24016,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>240</v>
       </c>
@@ -24028,7 +24030,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>240</v>
       </c>
@@ -24042,7 +24044,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>241</v>
       </c>
@@ -24056,7 +24058,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="822" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>546</v>
       </c>
@@ -24070,7 +24072,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="823" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>547</v>
       </c>
@@ -24084,7 +24086,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>546</v>
       </c>
@@ -24098,7 +24100,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="825" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>547</v>
       </c>
@@ -24112,7 +24114,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>546</v>
       </c>
@@ -24126,7 +24128,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>547</v>
       </c>
@@ -24140,7 +24142,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>244</v>
       </c>
@@ -24154,7 +24156,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="829" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>548</v>
       </c>
@@ -24168,7 +24170,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>548</v>
       </c>
@@ -24182,7 +24184,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>548</v>
       </c>
@@ -24196,7 +24198,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="832" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>245</v>
       </c>
@@ -24210,7 +24212,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="833" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>245</v>
       </c>
@@ -24224,7 +24226,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="834" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>245</v>
       </c>
@@ -24238,7 +24240,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="835" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>247</v>
       </c>
@@ -24252,7 +24254,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>247</v>
       </c>
@@ -24266,7 +24268,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="837" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>247</v>
       </c>
@@ -24280,7 +24282,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="838" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>549</v>
       </c>
@@ -24294,7 +24296,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="839" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>549</v>
       </c>
@@ -24308,7 +24310,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>421</v>
       </c>
@@ -24322,7 +24324,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="841" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>254</v>
       </c>
@@ -24336,7 +24338,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="842" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>747</v>
       </c>
@@ -24350,7 +24352,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="843" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>748</v>
       </c>
@@ -24364,7 +24366,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="844" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>254</v>
       </c>
@@ -24378,7 +24380,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>749</v>
       </c>
@@ -24392,7 +24394,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>254</v>
       </c>
@@ -24406,7 +24408,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="847" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>255</v>
       </c>
@@ -24420,7 +24422,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>255</v>
       </c>
@@ -24434,7 +24436,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="849" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>255</v>
       </c>
@@ -24448,7 +24450,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="850" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>256</v>
       </c>
@@ -24462,7 +24464,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="851" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>550</v>
       </c>
@@ -24476,7 +24478,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="852" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>550</v>
       </c>
@@ -24490,7 +24492,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="853" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>550</v>
       </c>
@@ -24504,7 +24506,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="854" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>551</v>
       </c>
@@ -24518,7 +24520,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="855" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>750</v>
       </c>
@@ -24532,7 +24534,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>751</v>
       </c>
@@ -24546,7 +24548,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="857" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>551</v>
       </c>
@@ -24560,7 +24562,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="858" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>752</v>
       </c>
@@ -24574,7 +24576,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="859" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>551</v>
       </c>
@@ -24588,7 +24590,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>552</v>
       </c>
@@ -24602,7 +24604,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>753</v>
       </c>
@@ -24616,7 +24618,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>552</v>
       </c>
@@ -24630,7 +24632,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>552</v>
       </c>
@@ -24644,7 +24646,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="864" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>422</v>
       </c>
@@ -24658,7 +24660,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="865" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>262</v>
       </c>
@@ -24672,7 +24674,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="866" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>754</v>
       </c>
@@ -24686,7 +24688,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>755</v>
       </c>
@@ -24700,7 +24702,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>262</v>
       </c>
@@ -24714,7 +24716,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>756</v>
       </c>
@@ -24728,7 +24730,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="870" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>262</v>
       </c>
@@ -24742,7 +24744,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>1011</v>
       </c>
@@ -24756,7 +24758,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>554</v>
       </c>
@@ -24770,7 +24772,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>1011</v>
       </c>
@@ -24784,7 +24786,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>554</v>
       </c>
@@ -24798,7 +24800,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>423</v>
       </c>
@@ -24812,7 +24814,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="876" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>555</v>
       </c>
@@ -24826,7 +24828,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>555</v>
       </c>
@@ -24840,7 +24842,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="878" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>555</v>
       </c>
@@ -24854,7 +24856,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>556</v>
       </c>
@@ -24868,7 +24870,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="880" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>556</v>
       </c>
@@ -24882,7 +24884,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="881" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>758</v>
       </c>
@@ -24896,7 +24898,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="882" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>556</v>
       </c>
@@ -24910,7 +24912,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="883" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>270</v>
       </c>
@@ -24924,7 +24926,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="884" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>270</v>
       </c>
@@ -24938,7 +24940,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="885" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>270</v>
       </c>
@@ -24952,7 +24954,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>271</v>
       </c>
@@ -24966,7 +24968,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="887" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>271</v>
       </c>
@@ -24980,7 +24982,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>271</v>
       </c>
@@ -24994,7 +24996,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="889" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>274</v>
       </c>
@@ -25008,7 +25010,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>274</v>
       </c>
@@ -25022,7 +25024,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="891" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>425</v>
       </c>
@@ -25036,7 +25038,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="892" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>1012</v>
       </c>
@@ -25050,7 +25052,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="893" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>557</v>
       </c>
@@ -25064,7 +25066,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="894" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>558</v>
       </c>
@@ -25078,7 +25080,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="895" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>759</v>
       </c>
@@ -25092,7 +25094,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="896" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>760</v>
       </c>
@@ -25106,7 +25108,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="897" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>761</v>
       </c>
@@ -25120,7 +25122,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>557</v>
       </c>
@@ -25134,7 +25136,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="899" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>762</v>
       </c>
@@ -25148,7 +25150,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>763</v>
       </c>
@@ -25162,7 +25164,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="901" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>764</v>
       </c>
@@ -25176,7 +25178,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="902" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>558</v>
       </c>
@@ -25190,7 +25192,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="903" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>557</v>
       </c>
@@ -25204,7 +25206,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="904" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>558</v>
       </c>
@@ -25218,7 +25220,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="905" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>275</v>
       </c>
@@ -25232,7 +25234,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="906" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>275</v>
       </c>
@@ -25246,7 +25248,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="907" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>1013</v>
       </c>
@@ -25260,7 +25262,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="908" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>465</v>
       </c>
@@ -25274,7 +25276,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="909" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>765</v>
       </c>
@@ -25288,7 +25290,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="910" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>766</v>
       </c>
@@ -25302,7 +25304,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="911" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>1014</v>
       </c>
@@ -25316,7 +25318,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="912" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>767</v>
       </c>
@@ -25330,7 +25332,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="913" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>371</v>
       </c>
@@ -25344,7 +25346,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="914" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>465</v>
       </c>
@@ -25358,7 +25360,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="915" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>1015</v>
       </c>
@@ -25372,7 +25374,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="916" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>560</v>
       </c>
@@ -25386,7 +25388,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="917" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>1015</v>
       </c>
@@ -25400,7 +25402,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="918" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>560</v>
       </c>
@@ -25414,7 +25416,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="919" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>1015</v>
       </c>
@@ -25428,7 +25430,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="920" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>560</v>
       </c>
@@ -25442,7 +25444,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="921" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>429</v>
       </c>
@@ -25456,7 +25458,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="922" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>283</v>
       </c>
@@ -25470,7 +25472,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="923" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>768</v>
       </c>
@@ -25484,7 +25486,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="924" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>769</v>
       </c>
@@ -25498,7 +25500,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="925" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>283</v>
       </c>
@@ -25512,7 +25514,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="926" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>283</v>
       </c>
@@ -25526,7 +25528,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="927" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>430</v>
       </c>
@@ -25540,7 +25542,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="928" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>285</v>
       </c>
@@ -25554,7 +25556,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>285</v>
       </c>
@@ -25568,7 +25570,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>285</v>
       </c>
@@ -25582,7 +25584,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="931" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>561</v>
       </c>
@@ -25596,7 +25598,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="932" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>770</v>
       </c>
@@ -25610,7 +25612,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="933" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>771</v>
       </c>
@@ -25624,7 +25626,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="934" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>561</v>
       </c>
@@ -25638,7 +25640,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>431</v>
       </c>
@@ -25652,7 +25654,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="936" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>432</v>
       </c>
@@ -25666,7 +25668,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="937" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>431</v>
       </c>
@@ -25680,7 +25682,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="938" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>772</v>
       </c>
@@ -25694,7 +25696,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="939" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>773</v>
       </c>
@@ -25708,7 +25710,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="940" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>431</v>
       </c>
@@ -25722,7 +25724,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="941" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>431</v>
       </c>
@@ -25736,7 +25738,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="942" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>297</v>
       </c>
@@ -25750,7 +25752,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="943" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>297</v>
       </c>
@@ -25764,7 +25766,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="944" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>433</v>
       </c>
@@ -25778,7 +25780,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="945" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>301</v>
       </c>
@@ -25792,7 +25794,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="946" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>774</v>
       </c>
@@ -25806,7 +25808,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="947" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>775</v>
       </c>
@@ -25820,7 +25822,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="948" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>301</v>
       </c>
@@ -25834,7 +25836,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="949" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>301</v>
       </c>
@@ -25848,7 +25850,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="950" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
         <v>434</v>
       </c>
@@ -25862,7 +25864,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="951" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
         <v>436</v>
       </c>
@@ -25876,7 +25878,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="952" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
         <v>304</v>
       </c>
@@ -25890,7 +25892,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="953" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
         <v>776</v>
       </c>
@@ -25904,7 +25906,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="954" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
         <v>777</v>
       </c>
@@ -25918,7 +25920,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="955" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
         <v>778</v>
       </c>
@@ -25932,7 +25934,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="956" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
         <v>779</v>
       </c>
@@ -25946,7 +25948,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="957" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
         <v>780</v>
       </c>
@@ -25960,7 +25962,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="958" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
         <v>304</v>
       </c>
@@ -25974,7 +25976,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="959" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
         <v>304</v>
       </c>
@@ -25988,7 +25990,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="960" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
         <v>1016</v>
       </c>
@@ -26002,7 +26004,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="961" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
         <v>562</v>
       </c>
@@ -26016,7 +26018,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="962" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
         <v>1016</v>
       </c>
@@ -26030,7 +26032,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="963" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
         <v>562</v>
       </c>
@@ -26044,7 +26046,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="964" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
         <v>1016</v>
       </c>
@@ -26058,7 +26060,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="965" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
         <v>562</v>
       </c>
@@ -26072,7 +26074,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="966" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
         <v>437</v>
       </c>
@@ -26086,7 +26088,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="967" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
         <v>306</v>
       </c>
@@ -26100,7 +26102,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="968" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
         <v>306</v>
       </c>
@@ -26114,7 +26116,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="969" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
         <v>306</v>
       </c>
@@ -26128,7 +26130,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="970" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
         <v>438</v>
       </c>
@@ -26142,7 +26144,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="971" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
         <v>307</v>
       </c>
@@ -26156,7 +26158,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="972" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
         <v>307</v>
       </c>
@@ -26170,7 +26172,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="973" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
         <v>307</v>
       </c>
@@ -26184,7 +26186,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="974" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
         <v>439</v>
       </c>
@@ -26198,7 +26200,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="975" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
         <v>439</v>
       </c>
@@ -26212,7 +26214,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="976" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
         <v>439</v>
       </c>
@@ -26226,7 +26228,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="977" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
         <v>439</v>
       </c>
@@ -26240,7 +26242,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="978" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
         <v>1017</v>
       </c>
@@ -26254,7 +26256,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="979" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
         <v>563</v>
       </c>
@@ -26268,7 +26270,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="980" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
         <v>1017</v>
       </c>
@@ -26282,7 +26284,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="981" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
         <v>563</v>
       </c>
@@ -26296,7 +26298,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="982" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
         <v>1017</v>
       </c>
@@ -26310,7 +26312,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="983" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
         <v>563</v>
       </c>
@@ -26324,7 +26326,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="984" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
         <v>440</v>
       </c>
@@ -26338,7 +26340,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="985" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
         <v>440</v>
       </c>
@@ -26352,7 +26354,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="986" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
         <v>781</v>
       </c>
@@ -26366,7 +26368,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="987" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
         <v>440</v>
       </c>
@@ -26380,7 +26382,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="988" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
         <v>441</v>
       </c>
@@ -26394,7 +26396,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="989" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
         <v>443</v>
       </c>
@@ -26408,7 +26410,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="990" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
         <v>441</v>
       </c>
@@ -26422,7 +26424,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="991" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
         <v>782</v>
       </c>
@@ -26436,7 +26438,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="992" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
         <v>783</v>
       </c>
@@ -26450,7 +26452,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="993" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
         <v>441</v>
       </c>
@@ -26464,7 +26466,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="994" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
         <v>441</v>
       </c>
@@ -26478,7 +26480,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="995" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
         <v>444</v>
       </c>
@@ -26492,7 +26494,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="996" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
         <v>445</v>
       </c>
@@ -26506,7 +26508,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="997" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
         <v>446</v>
       </c>
@@ -26520,7 +26522,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="998" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
         <v>446</v>
       </c>
@@ -26534,7 +26536,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="999" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
         <v>446</v>
       </c>
@@ -26548,7 +26550,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
         <v>446</v>
       </c>
@@ -26562,7 +26564,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
         <v>564</v>
       </c>
@@ -26576,7 +26578,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
         <v>565</v>
       </c>
@@ -26590,7 +26592,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
         <v>566</v>
       </c>
@@ -26604,7 +26606,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
         <v>566</v>
       </c>
@@ -26618,7 +26620,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
         <v>321</v>
       </c>
@@ -26632,7 +26634,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
         <v>321</v>
       </c>
@@ -26646,7 +26648,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
         <v>321</v>
       </c>
@@ -26660,7 +26662,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
         <v>448</v>
       </c>
@@ -26674,7 +26676,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
         <v>567</v>
       </c>
@@ -26688,7 +26690,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
         <v>325</v>
       </c>
@@ -26702,7 +26704,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
         <v>784</v>
       </c>
@@ -26716,7 +26718,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
         <v>567</v>
       </c>
@@ -26730,7 +26732,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
         <v>567</v>
       </c>
@@ -26744,7 +26746,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
         <v>450</v>
       </c>
@@ -26758,7 +26760,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
         <v>327</v>
       </c>
@@ -26772,7 +26774,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
         <v>785</v>
       </c>
@@ -26786,7 +26788,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1017" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
         <v>327</v>
       </c>
@@ -26800,7 +26802,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
         <v>786</v>
       </c>
@@ -26814,7 +26816,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1019" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
         <v>787</v>
       </c>
@@ -26828,7 +26830,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
         <v>327</v>
       </c>
@@ -26842,7 +26844,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
         <v>452</v>
       </c>
@@ -26856,7 +26858,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1022" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
         <v>330</v>
       </c>
@@ -26870,7 +26872,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1023" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
         <v>330</v>
       </c>
@@ -26884,7 +26886,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1024" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
         <v>330</v>
       </c>
@@ -26898,7 +26900,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
         <v>331</v>
       </c>
@@ -26912,7 +26914,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1026" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
         <v>331</v>
       </c>
@@ -26926,7 +26928,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1027" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
         <v>788</v>
       </c>
@@ -26940,7 +26942,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1028" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
         <v>335</v>
       </c>
@@ -26954,7 +26956,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1029" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
         <v>335</v>
       </c>
@@ -26968,7 +26970,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1030" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
         <v>335</v>
       </c>
@@ -26982,7 +26984,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1031" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
         <v>569</v>
       </c>
@@ -26996,7 +26998,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1032" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
         <v>569</v>
       </c>
@@ -27010,7 +27012,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1033" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
         <v>569</v>
       </c>
@@ -27024,7 +27026,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1034" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
         <v>453</v>
       </c>
@@ -27038,7 +27040,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1035" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
         <v>570</v>
       </c>
@@ -27052,7 +27054,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1036" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
         <v>570</v>
       </c>
@@ -27066,7 +27068,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1037" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
         <v>570</v>
       </c>
@@ -27080,7 +27082,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1038" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
         <v>571</v>
       </c>
@@ -27094,7 +27096,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1039" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
         <v>790</v>
       </c>
@@ -27108,7 +27110,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1040" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
         <v>571</v>
       </c>
@@ -27122,7 +27124,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1041" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
         <v>342</v>
       </c>
@@ -27136,7 +27138,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
         <v>342</v>
       </c>
@@ -27150,7 +27152,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1043" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
         <v>342</v>
       </c>
@@ -27164,7 +27166,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
         <v>454</v>
       </c>
@@ -27178,7 +27180,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1045" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
         <v>345</v>
       </c>
@@ -27192,7 +27194,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
         <v>791</v>
       </c>
@@ -27206,7 +27208,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
         <v>792</v>
       </c>
@@ -27220,7 +27222,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
         <v>793</v>
       </c>
@@ -27234,7 +27236,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1049" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
         <v>794</v>
       </c>
@@ -27248,7 +27250,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1050" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
         <v>345</v>
       </c>
@@ -27262,7 +27264,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1051" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
         <v>795</v>
       </c>
@@ -27276,7 +27278,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1052" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
         <v>345</v>
       </c>
@@ -27290,7 +27292,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
         <v>349</v>
       </c>
@@ -27304,7 +27306,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1054" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
         <v>349</v>
       </c>
@@ -27318,7 +27320,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
         <v>349</v>
       </c>
@@ -27332,7 +27334,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
         <v>572</v>
       </c>
@@ -27346,7 +27348,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1057" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
         <v>572</v>
       </c>
@@ -27361,23 +27363,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1057" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Nuts, nes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F102171-5CCE-430B-AC06-89764F231A52}">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28058,6 +28053,14 @@
         <v>453</v>
       </c>
     </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>500</v>
+      </c>
+      <c r="B85" t="s">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28067,7 +28070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7ED19D-4D8E-4C89-AC35-7FB778E26637}">
   <dimension ref="A1:B1012"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -36182,7 +36185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EFBD89-F77F-47D3-B775-BA0359D7A0AB}">
   <dimension ref="A1:B386"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -42157,8 +42160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F717114-0CCC-490E-8AC0-0BFB74235F4F}">
   <dimension ref="A1:B551"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
